--- a/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.63253325932797</v>
+        <v>25.63253325932796</v>
       </c>
       <c r="C2">
-        <v>21.29875517150755</v>
+        <v>21.29875517150759</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.21270802529645</v>
+        <v>23.21270802529646</v>
       </c>
       <c r="F2">
-        <v>35.84241271932263</v>
+        <v>35.84241271932267</v>
       </c>
       <c r="G2">
-        <v>17.55881128765705</v>
+        <v>17.55881128765704</v>
       </c>
       <c r="H2">
-        <v>12.19634196760927</v>
+        <v>12.1963419676093</v>
       </c>
       <c r="I2">
-        <v>7.830211503696699</v>
+        <v>7.830211503696671</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.87502158586138</v>
+        <v>23.87502158586133</v>
       </c>
       <c r="C3">
         <v>19.82062851129506</v>
@@ -459,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.59634629834784</v>
+        <v>21.59634629834779</v>
       </c>
       <c r="F3">
-        <v>33.19826128344581</v>
+        <v>33.19826128344586</v>
       </c>
       <c r="G3">
-        <v>16.82497748260202</v>
+        <v>16.82497748260206</v>
       </c>
       <c r="H3">
-        <v>12.21223284225291</v>
+        <v>12.21223284225292</v>
       </c>
       <c r="I3">
-        <v>7.654974629373787</v>
+        <v>7.654974629373807</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>22.73895032683911</v>
       </c>
       <c r="C4">
-        <v>18.86769905731462</v>
+        <v>18.86769905731465</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.55503037439585</v>
+        <v>20.55503037439587</v>
       </c>
       <c r="F4">
-        <v>31.50882677320486</v>
+        <v>31.50882677320489</v>
       </c>
       <c r="G4">
-        <v>16.40664023645497</v>
+        <v>16.40664023645499</v>
       </c>
       <c r="H4">
-        <v>12.26291472865346</v>
+        <v>12.26291472865349</v>
       </c>
       <c r="I4">
-        <v>7.567076508005272</v>
+        <v>7.567076508005299</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.26146892509441</v>
+        <v>22.2614689250944</v>
       </c>
       <c r="C5">
-        <v>18.46776666342663</v>
+        <v>18.46776666342662</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.11817311397935</v>
+        <v>20.11817311397936</v>
       </c>
       <c r="F5">
         <v>30.80354712420742</v>
       </c>
       <c r="G5">
-        <v>16.24419341762237</v>
+        <v>16.2441934176224</v>
       </c>
       <c r="H5">
-        <v>12.29292982923429</v>
+        <v>12.29292982923428</v>
       </c>
       <c r="I5">
-        <v>7.535911978925132</v>
+        <v>7.535911978925121</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.18130075329251</v>
+        <v>22.18130075329253</v>
       </c>
       <c r="C6">
         <v>18.40065169525852</v>
@@ -576,16 +576,16 @@
         <v>20.04487140663584</v>
       </c>
       <c r="F6">
-        <v>30.68541448102441</v>
+        <v>30.68541448102436</v>
       </c>
       <c r="G6">
         <v>16.21770134747054</v>
       </c>
       <c r="H6">
-        <v>12.29845238942253</v>
+        <v>12.29845238942254</v>
       </c>
       <c r="I6">
-        <v>7.531009238035782</v>
+        <v>7.531009238035765</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.73256990470045</v>
+        <v>22.73256990470048</v>
       </c>
       <c r="C7">
-        <v>18.86235267403026</v>
+        <v>18.86235267403022</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.5491897096597</v>
+        <v>20.54918970965965</v>
       </c>
       <c r="F7">
-        <v>31.49938349757422</v>
+        <v>31.49938349757419</v>
       </c>
       <c r="G7">
-        <v>16.40441703532847</v>
+        <v>16.40441703532854</v>
       </c>
       <c r="H7">
-        <v>12.26328283414719</v>
+        <v>12.26328283414727</v>
       </c>
       <c r="I7">
-        <v>7.566637771410694</v>
+        <v>7.566637771410702</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.03823643094544</v>
+        <v>25.03823643094549</v>
       </c>
       <c r="C8">
-        <v>20.79838295376976</v>
+        <v>20.7983829537697</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.66538498849949</v>
+        <v>22.66538498849953</v>
       </c>
       <c r="F8">
-        <v>34.94421465886858</v>
+        <v>34.94421465886871</v>
       </c>
       <c r="G8">
         <v>17.29905330598596</v>
       </c>
       <c r="H8">
-        <v>12.19276590808718</v>
+        <v>12.1927659080871</v>
       </c>
       <c r="I8">
-        <v>7.765526735134204</v>
+        <v>7.765526735134189</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.11785254948667</v>
+        <v>29.11785254948662</v>
       </c>
       <c r="C9">
-        <v>24.24524712445285</v>
+        <v>24.2452471244528</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.43902243201367</v>
+        <v>26.4390224320136</v>
       </c>
       <c r="F9">
-        <v>41.19222103320291</v>
+        <v>41.19222103320278</v>
       </c>
       <c r="G9">
-        <v>19.31239406639811</v>
+        <v>19.31239406639815</v>
       </c>
       <c r="H9">
-        <v>12.42046770976581</v>
+        <v>12.42046770976586</v>
       </c>
       <c r="I9">
-        <v>8.324410364468877</v>
+        <v>8.32441036446888</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.86154464748491</v>
+        <v>31.86154464748483</v>
       </c>
       <c r="C10">
         <v>26.58052294131767</v>
@@ -725,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.00043854040521</v>
+        <v>29.00043854040527</v>
       </c>
       <c r="F10">
-        <v>45.50183369684645</v>
+        <v>45.5018336968464</v>
       </c>
       <c r="G10">
-        <v>21.50271135701783</v>
+        <v>21.50271135701765</v>
       </c>
       <c r="H10">
-        <v>12.8648745223591</v>
+        <v>12.86487452235901</v>
       </c>
       <c r="I10">
-        <v>9.029738218417807</v>
+        <v>9.029738218417725</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.05868464323601</v>
+        <v>33.05868464323606</v>
       </c>
       <c r="C11">
-        <v>27.60427533938822</v>
+        <v>27.60427533938821</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.1246743376393</v>
+        <v>30.12467433763932</v>
       </c>
       <c r="F11">
-        <v>47.40965581181561</v>
+        <v>47.4096558118156</v>
       </c>
       <c r="G11">
-        <v>22.51173978360096</v>
+        <v>22.51173978360095</v>
       </c>
       <c r="H11">
-        <v>13.25395470376829</v>
+        <v>13.2539547037683</v>
       </c>
       <c r="I11">
-        <v>9.498751686895812</v>
+        <v>9.498751686895826</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.50506599240901</v>
+        <v>33.50506599240895</v>
       </c>
       <c r="C12">
-        <v>27.98680316163399</v>
+        <v>27.986803161634</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>30.54497482771936</v>
+        <v>30.54497482771928</v>
       </c>
       <c r="F12">
-        <v>48.12536906160057</v>
+        <v>48.12536906160051</v>
       </c>
       <c r="G12">
-        <v>22.89507071181601</v>
+        <v>22.89507071181602</v>
       </c>
       <c r="H12">
-        <v>13.50090140339671</v>
+        <v>13.50090140339672</v>
       </c>
       <c r="I12">
-        <v>9.676738410528781</v>
+        <v>9.676738410528753</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.40923222795301</v>
+        <v>33.409232227953</v>
       </c>
       <c r="C13">
-        <v>27.90464072555871</v>
+        <v>27.90464072555872</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>30.45468856469381</v>
+        <v>30.45468856469385</v>
       </c>
       <c r="F13">
-        <v>47.97151223179783</v>
+        <v>47.97151223179789</v>
       </c>
       <c r="G13">
-        <v>22.81244977796895</v>
+        <v>22.81244977796894</v>
       </c>
       <c r="H13">
         <v>13.44750787285424</v>
       </c>
       <c r="I13">
-        <v>9.638382228098132</v>
+        <v>9.6383822280981</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.09554561400444</v>
+        <v>33.09554561400446</v>
       </c>
       <c r="C14">
-        <v>27.63584672958009</v>
+        <v>27.63584672958</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.15935846319529</v>
+        <v>30.15935846319525</v>
       </c>
       <c r="F14">
-        <v>47.46866771269116</v>
+        <v>47.46866771269118</v>
       </c>
       <c r="G14">
-        <v>22.54324876990156</v>
+        <v>22.54324876990154</v>
       </c>
       <c r="H14">
-        <v>13.27417729427041</v>
+        <v>13.27417729427042</v>
       </c>
       <c r="I14">
-        <v>9.513384767268802</v>
+        <v>9.513384767268725</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.90251067144397</v>
+        <v>32.90251067144393</v>
       </c>
       <c r="C15">
         <v>27.4705455673127</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>29.97776909732292</v>
+        <v>29.97776909732293</v>
       </c>
       <c r="F15">
-        <v>47.15981068325023</v>
+        <v>47.1598106832502</v>
       </c>
       <c r="G15">
-        <v>22.37853217601733</v>
+        <v>22.37853217601726</v>
       </c>
       <c r="H15">
-        <v>13.16861531443114</v>
+        <v>13.16861531443108</v>
       </c>
       <c r="I15">
-        <v>9.436881958896434</v>
+        <v>9.4368819588964</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.78231432282498</v>
+        <v>31.78231432282503</v>
       </c>
       <c r="C16">
         <v>26.512875129919</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>28.92618112882453</v>
+        <v>28.92618112882451</v>
       </c>
       <c r="F16">
-        <v>45.37616164327919</v>
+        <v>45.37616164327924</v>
       </c>
       <c r="G16">
-        <v>21.43691334548641</v>
+        <v>21.43691334548649</v>
       </c>
       <c r="H16">
-        <v>12.84853459812132</v>
+        <v>12.84853459812136</v>
       </c>
       <c r="I16">
-        <v>8.999118975166427</v>
+        <v>8.999118975166468</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.08230861088976</v>
+        <v>31.08230861088974</v>
       </c>
       <c r="C17">
-        <v>25.91576340746461</v>
+        <v>25.91576340746465</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.27088479463765</v>
+        <v>28.27088479463763</v>
       </c>
       <c r="F17">
-        <v>44.26901585532819</v>
+        <v>44.26901585532821</v>
       </c>
       <c r="G17">
         <v>20.86092232406788</v>
       </c>
       <c r="H17">
-        <v>12.71334435777012</v>
+        <v>12.7133443577701</v>
       </c>
       <c r="I17">
-        <v>8.730832231635343</v>
+        <v>8.730832231635317</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.67485983573724</v>
+        <v>30.6748598357373</v>
       </c>
       <c r="C18">
         <v>25.56866234052658</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>27.89008803735304</v>
+        <v>27.89008803735302</v>
       </c>
       <c r="F18">
-        <v>43.62720214829525</v>
+        <v>43.62720214829527</v>
       </c>
       <c r="G18">
-        <v>20.53009893786862</v>
+        <v>20.53009893786865</v>
       </c>
       <c r="H18">
-        <v>12.64219449718006</v>
+        <v>12.64219449717998</v>
       </c>
       <c r="I18">
-        <v>8.609828306199097</v>
+        <v>8.609828306199084</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.53606535776095</v>
+        <v>30.53606535776103</v>
       </c>
       <c r="C19">
-        <v>25.45050025485943</v>
+        <v>25.45050025485936</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>27.7604759734571</v>
+        <v>27.76047597345703</v>
       </c>
       <c r="F19">
-        <v>43.40901104353669</v>
+        <v>43.40901104353675</v>
       </c>
       <c r="G19">
-        <v>20.41815716173467</v>
+        <v>20.41815716173474</v>
       </c>
       <c r="H19">
-        <v>12.61921480632766</v>
+        <v>12.6192148063276</v>
       </c>
       <c r="I19">
-        <v>8.582748053022828</v>
+        <v>8.582748053022843</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.15732208119737</v>
+        <v>31.15732208119736</v>
       </c>
       <c r="C20">
-        <v>25.97970284946516</v>
+        <v>25.97970284946512</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>28.34104140090707</v>
+        <v>28.34104140090705</v>
       </c>
       <c r="F20">
-        <v>44.38738663717361</v>
+        <v>44.38738663717353</v>
       </c>
       <c r="G20">
-        <v>20.92218590068421</v>
+        <v>20.92218590068413</v>
       </c>
       <c r="H20">
-        <v>12.7270459137845</v>
+        <v>12.72704591378451</v>
       </c>
       <c r="I20">
-        <v>8.759391004099552</v>
+        <v>8.759391004099525</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.18786828586527</v>
+        <v>33.18786828586529</v>
       </c>
       <c r="C21">
-        <v>27.71493417233935</v>
+        <v>27.71493417233928</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.24624716872794</v>
+        <v>30.24624716872793</v>
       </c>
       <c r="F21">
-        <v>47.61654083098726</v>
+        <v>47.61654083098718</v>
       </c>
       <c r="G21">
-        <v>22.62228175832704</v>
+        <v>22.62228175832697</v>
       </c>
       <c r="H21">
-        <v>13.32496152936686</v>
+        <v>13.32496152936679</v>
       </c>
       <c r="I21">
-        <v>9.550085929078641</v>
+        <v>9.550085929078588</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>34.47465715367714</v>
       </c>
       <c r="C22">
-        <v>28.81925142794437</v>
+        <v>28.81925142794439</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.46007121770569</v>
+        <v>31.46007121770575</v>
       </c>
       <c r="F22">
-        <v>49.68820466638497</v>
+        <v>49.68820466638501</v>
       </c>
       <c r="G22">
-        <v>23.74090593014961</v>
+        <v>23.74090593014965</v>
       </c>
       <c r="H22">
-        <v>14.05255255113614</v>
+        <v>14.05255255113619</v>
       </c>
       <c r="I22">
-        <v>10.06929760032179</v>
+        <v>10.06929760032185</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.79142003524321</v>
+        <v>33.79142003524313</v>
       </c>
       <c r="C23">
-        <v>28.23243012458698</v>
+        <v>28.23243012458694</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>30.8149236323591</v>
+        <v>30.81492363235912</v>
       </c>
       <c r="F23">
-        <v>48.58575208691838</v>
+        <v>48.58575208691834</v>
       </c>
       <c r="G23">
-        <v>23.14299682786748</v>
+        <v>23.14299682786743</v>
       </c>
       <c r="H23">
-        <v>13.66166187701143</v>
+        <v>13.6616618770114</v>
       </c>
       <c r="I23">
-        <v>9.791820655716096</v>
+        <v>9.791820655716069</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.12342411241611</v>
+        <v>31.12342411241613</v>
       </c>
       <c r="C24">
-        <v>25.95080773571021</v>
+        <v>25.95080773571034</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.30933627367454</v>
+        <v>28.30933627367449</v>
       </c>
       <c r="F24">
-        <v>44.33388777852011</v>
+        <v>44.33388777852009</v>
       </c>
       <c r="G24">
-        <v>20.89448766890033</v>
+        <v>20.89448766890034</v>
       </c>
       <c r="H24">
-        <v>12.720831026422</v>
+        <v>12.72083102642197</v>
       </c>
       <c r="I24">
-        <v>8.746479876087159</v>
+        <v>8.746479876087179</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.05998500143674</v>
+        <v>28.05998500143675</v>
       </c>
       <c r="C25">
-        <v>23.34867524329713</v>
+        <v>23.34867524329701</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>25.45668329270963</v>
       </c>
       <c r="F25">
-        <v>39.55369815404579</v>
+        <v>39.55369815404578</v>
       </c>
       <c r="G25">
-        <v>18.73950445234363</v>
+        <v>18.73950445234364</v>
       </c>
       <c r="H25">
-        <v>12.31395228741139</v>
+        <v>12.31395228741138</v>
       </c>
       <c r="I25">
-        <v>8.153412530832712</v>
+        <v>8.153412530832711</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.63253325932796</v>
+        <v>25.63253325932797</v>
       </c>
       <c r="C2">
-        <v>21.29875517150759</v>
+        <v>21.29875517150755</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.21270802529646</v>
+        <v>23.21270802529645</v>
       </c>
       <c r="F2">
-        <v>35.84241271932267</v>
+        <v>35.84241271932263</v>
       </c>
       <c r="G2">
-        <v>17.55881128765704</v>
+        <v>17.55881128765705</v>
       </c>
       <c r="H2">
-        <v>12.1963419676093</v>
+        <v>12.19634196760927</v>
       </c>
       <c r="I2">
-        <v>7.830211503696671</v>
+        <v>7.830211503696699</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.87502158586133</v>
+        <v>23.87502158586138</v>
       </c>
       <c r="C3">
         <v>19.82062851129506</v>
@@ -459,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.59634629834779</v>
+        <v>21.59634629834784</v>
       </c>
       <c r="F3">
-        <v>33.19826128344586</v>
+        <v>33.19826128344581</v>
       </c>
       <c r="G3">
-        <v>16.82497748260206</v>
+        <v>16.82497748260202</v>
       </c>
       <c r="H3">
-        <v>12.21223284225292</v>
+        <v>12.21223284225291</v>
       </c>
       <c r="I3">
-        <v>7.654974629373807</v>
+        <v>7.654974629373787</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>22.73895032683911</v>
       </c>
       <c r="C4">
-        <v>18.86769905731465</v>
+        <v>18.86769905731462</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.55503037439587</v>
+        <v>20.55503037439585</v>
       </c>
       <c r="F4">
-        <v>31.50882677320489</v>
+        <v>31.50882677320486</v>
       </c>
       <c r="G4">
-        <v>16.40664023645499</v>
+        <v>16.40664023645497</v>
       </c>
       <c r="H4">
-        <v>12.26291472865349</v>
+        <v>12.26291472865346</v>
       </c>
       <c r="I4">
-        <v>7.567076508005299</v>
+        <v>7.567076508005272</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.2614689250944</v>
+        <v>22.26146892509441</v>
       </c>
       <c r="C5">
-        <v>18.46776666342662</v>
+        <v>18.46776666342663</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.11817311397936</v>
+        <v>20.11817311397935</v>
       </c>
       <c r="F5">
         <v>30.80354712420742</v>
       </c>
       <c r="G5">
-        <v>16.2441934176224</v>
+        <v>16.24419341762237</v>
       </c>
       <c r="H5">
-        <v>12.29292982923428</v>
+        <v>12.29292982923429</v>
       </c>
       <c r="I5">
-        <v>7.535911978925121</v>
+        <v>7.535911978925132</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.18130075329253</v>
+        <v>22.18130075329251</v>
       </c>
       <c r="C6">
         <v>18.40065169525852</v>
@@ -576,16 +576,16 @@
         <v>20.04487140663584</v>
       </c>
       <c r="F6">
-        <v>30.68541448102436</v>
+        <v>30.68541448102441</v>
       </c>
       <c r="G6">
         <v>16.21770134747054</v>
       </c>
       <c r="H6">
-        <v>12.29845238942254</v>
+        <v>12.29845238942253</v>
       </c>
       <c r="I6">
-        <v>7.531009238035765</v>
+        <v>7.531009238035782</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.73256990470048</v>
+        <v>22.73256990470045</v>
       </c>
       <c r="C7">
-        <v>18.86235267403022</v>
+        <v>18.86235267403026</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.54918970965965</v>
+        <v>20.5491897096597</v>
       </c>
       <c r="F7">
-        <v>31.49938349757419</v>
+        <v>31.49938349757422</v>
       </c>
       <c r="G7">
-        <v>16.40441703532854</v>
+        <v>16.40441703532847</v>
       </c>
       <c r="H7">
-        <v>12.26328283414727</v>
+        <v>12.26328283414719</v>
       </c>
       <c r="I7">
-        <v>7.566637771410702</v>
+        <v>7.566637771410694</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.03823643094549</v>
+        <v>25.03823643094544</v>
       </c>
       <c r="C8">
-        <v>20.7983829537697</v>
+        <v>20.79838295376976</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.66538498849953</v>
+        <v>22.66538498849949</v>
       </c>
       <c r="F8">
-        <v>34.94421465886871</v>
+        <v>34.94421465886858</v>
       </c>
       <c r="G8">
         <v>17.29905330598596</v>
       </c>
       <c r="H8">
-        <v>12.1927659080871</v>
+        <v>12.19276590808718</v>
       </c>
       <c r="I8">
-        <v>7.765526735134189</v>
+        <v>7.765526735134204</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.11785254948662</v>
+        <v>29.11785254948667</v>
       </c>
       <c r="C9">
-        <v>24.2452471244528</v>
+        <v>24.24524712445285</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.4390224320136</v>
+        <v>26.43902243201367</v>
       </c>
       <c r="F9">
-        <v>41.19222103320278</v>
+        <v>41.19222103320291</v>
       </c>
       <c r="G9">
-        <v>19.31239406639815</v>
+        <v>19.31239406639811</v>
       </c>
       <c r="H9">
-        <v>12.42046770976586</v>
+        <v>12.42046770976581</v>
       </c>
       <c r="I9">
-        <v>8.32441036446888</v>
+        <v>8.324410364468877</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.86154464748483</v>
+        <v>31.86154464748491</v>
       </c>
       <c r="C10">
         <v>26.58052294131767</v>
@@ -725,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.00043854040527</v>
+        <v>29.00043854040521</v>
       </c>
       <c r="F10">
-        <v>45.5018336968464</v>
+        <v>45.50183369684645</v>
       </c>
       <c r="G10">
-        <v>21.50271135701765</v>
+        <v>21.50271135701783</v>
       </c>
       <c r="H10">
-        <v>12.86487452235901</v>
+        <v>12.8648745223591</v>
       </c>
       <c r="I10">
-        <v>9.029738218417725</v>
+        <v>9.029738218417807</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.05868464323606</v>
+        <v>33.05868464323601</v>
       </c>
       <c r="C11">
-        <v>27.60427533938821</v>
+        <v>27.60427533938822</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.12467433763932</v>
+        <v>30.1246743376393</v>
       </c>
       <c r="F11">
-        <v>47.4096558118156</v>
+        <v>47.40965581181561</v>
       </c>
       <c r="G11">
-        <v>22.51173978360095</v>
+        <v>22.51173978360096</v>
       </c>
       <c r="H11">
-        <v>13.2539547037683</v>
+        <v>13.25395470376829</v>
       </c>
       <c r="I11">
-        <v>9.498751686895826</v>
+        <v>9.498751686895812</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.50506599240895</v>
+        <v>33.50506599240901</v>
       </c>
       <c r="C12">
-        <v>27.986803161634</v>
+        <v>27.98680316163399</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>30.54497482771928</v>
+        <v>30.54497482771936</v>
       </c>
       <c r="F12">
-        <v>48.12536906160051</v>
+        <v>48.12536906160057</v>
       </c>
       <c r="G12">
-        <v>22.89507071181602</v>
+        <v>22.89507071181601</v>
       </c>
       <c r="H12">
-        <v>13.50090140339672</v>
+        <v>13.50090140339671</v>
       </c>
       <c r="I12">
-        <v>9.676738410528753</v>
+        <v>9.676738410528781</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.409232227953</v>
+        <v>33.40923222795301</v>
       </c>
       <c r="C13">
-        <v>27.90464072555872</v>
+        <v>27.90464072555871</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>30.45468856469385</v>
+        <v>30.45468856469381</v>
       </c>
       <c r="F13">
-        <v>47.97151223179789</v>
+        <v>47.97151223179783</v>
       </c>
       <c r="G13">
-        <v>22.81244977796894</v>
+        <v>22.81244977796895</v>
       </c>
       <c r="H13">
         <v>13.44750787285424</v>
       </c>
       <c r="I13">
-        <v>9.6383822280981</v>
+        <v>9.638382228098132</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.09554561400446</v>
+        <v>33.09554561400444</v>
       </c>
       <c r="C14">
-        <v>27.63584672958</v>
+        <v>27.63584672958009</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.15935846319525</v>
+        <v>30.15935846319529</v>
       </c>
       <c r="F14">
-        <v>47.46866771269118</v>
+        <v>47.46866771269116</v>
       </c>
       <c r="G14">
-        <v>22.54324876990154</v>
+        <v>22.54324876990156</v>
       </c>
       <c r="H14">
-        <v>13.27417729427042</v>
+        <v>13.27417729427041</v>
       </c>
       <c r="I14">
-        <v>9.513384767268725</v>
+        <v>9.513384767268802</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.90251067144393</v>
+        <v>32.90251067144397</v>
       </c>
       <c r="C15">
         <v>27.4705455673127</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>29.97776909732293</v>
+        <v>29.97776909732292</v>
       </c>
       <c r="F15">
-        <v>47.1598106832502</v>
+        <v>47.15981068325023</v>
       </c>
       <c r="G15">
-        <v>22.37853217601726</v>
+        <v>22.37853217601733</v>
       </c>
       <c r="H15">
-        <v>13.16861531443108</v>
+        <v>13.16861531443114</v>
       </c>
       <c r="I15">
-        <v>9.4368819588964</v>
+        <v>9.436881958896434</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.78231432282503</v>
+        <v>31.78231432282498</v>
       </c>
       <c r="C16">
         <v>26.512875129919</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>28.92618112882451</v>
+        <v>28.92618112882453</v>
       </c>
       <c r="F16">
-        <v>45.37616164327924</v>
+        <v>45.37616164327919</v>
       </c>
       <c r="G16">
-        <v>21.43691334548649</v>
+        <v>21.43691334548641</v>
       </c>
       <c r="H16">
-        <v>12.84853459812136</v>
+        <v>12.84853459812132</v>
       </c>
       <c r="I16">
-        <v>8.999118975166468</v>
+        <v>8.999118975166427</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.08230861088974</v>
+        <v>31.08230861088976</v>
       </c>
       <c r="C17">
-        <v>25.91576340746465</v>
+        <v>25.91576340746461</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.27088479463763</v>
+        <v>28.27088479463765</v>
       </c>
       <c r="F17">
-        <v>44.26901585532821</v>
+        <v>44.26901585532819</v>
       </c>
       <c r="G17">
         <v>20.86092232406788</v>
       </c>
       <c r="H17">
-        <v>12.7133443577701</v>
+        <v>12.71334435777012</v>
       </c>
       <c r="I17">
-        <v>8.730832231635317</v>
+        <v>8.730832231635343</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.6748598357373</v>
+        <v>30.67485983573724</v>
       </c>
       <c r="C18">
         <v>25.56866234052658</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>27.89008803735302</v>
+        <v>27.89008803735304</v>
       </c>
       <c r="F18">
-        <v>43.62720214829527</v>
+        <v>43.62720214829525</v>
       </c>
       <c r="G18">
-        <v>20.53009893786865</v>
+        <v>20.53009893786862</v>
       </c>
       <c r="H18">
-        <v>12.64219449717998</v>
+        <v>12.64219449718006</v>
       </c>
       <c r="I18">
-        <v>8.609828306199084</v>
+        <v>8.609828306199097</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.53606535776103</v>
+        <v>30.53606535776095</v>
       </c>
       <c r="C19">
-        <v>25.45050025485936</v>
+        <v>25.45050025485943</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>27.76047597345703</v>
+        <v>27.7604759734571</v>
       </c>
       <c r="F19">
-        <v>43.40901104353675</v>
+        <v>43.40901104353669</v>
       </c>
       <c r="G19">
-        <v>20.41815716173474</v>
+        <v>20.41815716173467</v>
       </c>
       <c r="H19">
-        <v>12.6192148063276</v>
+        <v>12.61921480632766</v>
       </c>
       <c r="I19">
-        <v>8.582748053022843</v>
+        <v>8.582748053022828</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.15732208119736</v>
+        <v>31.15732208119737</v>
       </c>
       <c r="C20">
-        <v>25.97970284946512</v>
+        <v>25.97970284946516</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>28.34104140090705</v>
+        <v>28.34104140090707</v>
       </c>
       <c r="F20">
-        <v>44.38738663717353</v>
+        <v>44.38738663717361</v>
       </c>
       <c r="G20">
-        <v>20.92218590068413</v>
+        <v>20.92218590068421</v>
       </c>
       <c r="H20">
-        <v>12.72704591378451</v>
+        <v>12.7270459137845</v>
       </c>
       <c r="I20">
-        <v>8.759391004099525</v>
+        <v>8.759391004099552</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.18786828586529</v>
+        <v>33.18786828586527</v>
       </c>
       <c r="C21">
-        <v>27.71493417233928</v>
+        <v>27.71493417233935</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.24624716872793</v>
+        <v>30.24624716872794</v>
       </c>
       <c r="F21">
-        <v>47.61654083098718</v>
+        <v>47.61654083098726</v>
       </c>
       <c r="G21">
-        <v>22.62228175832697</v>
+        <v>22.62228175832704</v>
       </c>
       <c r="H21">
-        <v>13.32496152936679</v>
+        <v>13.32496152936686</v>
       </c>
       <c r="I21">
-        <v>9.550085929078588</v>
+        <v>9.550085929078641</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>34.47465715367714</v>
       </c>
       <c r="C22">
-        <v>28.81925142794439</v>
+        <v>28.81925142794437</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.46007121770575</v>
+        <v>31.46007121770569</v>
       </c>
       <c r="F22">
-        <v>49.68820466638501</v>
+        <v>49.68820466638497</v>
       </c>
       <c r="G22">
-        <v>23.74090593014965</v>
+        <v>23.74090593014961</v>
       </c>
       <c r="H22">
-        <v>14.05255255113619</v>
+        <v>14.05255255113614</v>
       </c>
       <c r="I22">
-        <v>10.06929760032185</v>
+        <v>10.06929760032179</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.79142003524313</v>
+        <v>33.79142003524321</v>
       </c>
       <c r="C23">
-        <v>28.23243012458694</v>
+        <v>28.23243012458698</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>30.81492363235912</v>
+        <v>30.8149236323591</v>
       </c>
       <c r="F23">
-        <v>48.58575208691834</v>
+        <v>48.58575208691838</v>
       </c>
       <c r="G23">
-        <v>23.14299682786743</v>
+        <v>23.14299682786748</v>
       </c>
       <c r="H23">
-        <v>13.6616618770114</v>
+        <v>13.66166187701143</v>
       </c>
       <c r="I23">
-        <v>9.791820655716069</v>
+        <v>9.791820655716096</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.12342411241613</v>
+        <v>31.12342411241611</v>
       </c>
       <c r="C24">
-        <v>25.95080773571034</v>
+        <v>25.95080773571021</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.30933627367449</v>
+        <v>28.30933627367454</v>
       </c>
       <c r="F24">
-        <v>44.33388777852009</v>
+        <v>44.33388777852011</v>
       </c>
       <c r="G24">
-        <v>20.89448766890034</v>
+        <v>20.89448766890033</v>
       </c>
       <c r="H24">
-        <v>12.72083102642197</v>
+        <v>12.720831026422</v>
       </c>
       <c r="I24">
-        <v>8.746479876087179</v>
+        <v>8.746479876087159</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.05998500143675</v>
+        <v>28.05998500143674</v>
       </c>
       <c r="C25">
-        <v>23.34867524329701</v>
+        <v>23.34867524329713</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>25.45668329270963</v>
       </c>
       <c r="F25">
-        <v>39.55369815404578</v>
+        <v>39.55369815404579</v>
       </c>
       <c r="G25">
-        <v>18.73950445234364</v>
+        <v>18.73950445234363</v>
       </c>
       <c r="H25">
-        <v>12.31395228741138</v>
+        <v>12.31395228741139</v>
       </c>
       <c r="I25">
-        <v>8.153412530832711</v>
+        <v>8.153412530832712</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.63253325932797</v>
+        <v>25.63181134637213</v>
       </c>
       <c r="C2">
-        <v>21.29875517150755</v>
+        <v>21.29428732071948</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.21270802529645</v>
+        <v>23.21936377238516</v>
       </c>
       <c r="F2">
-        <v>35.84241271932263</v>
+        <v>35.83484009294297</v>
       </c>
       <c r="G2">
-        <v>17.55881128765705</v>
+        <v>16.82964098477196</v>
       </c>
       <c r="H2">
-        <v>12.19634196760927</v>
+        <v>17.58210161684864</v>
       </c>
       <c r="I2">
-        <v>7.830211503696699</v>
+        <v>12.18322515647598</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.82393999671223</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.87502158586138</v>
+        <v>23.874522191126</v>
       </c>
       <c r="C3">
-        <v>19.82062851129506</v>
+        <v>19.81665741319117</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.59634629834784</v>
+        <v>21.60258001481132</v>
       </c>
       <c r="F3">
-        <v>33.19826128344581</v>
+        <v>33.19122175477258</v>
       </c>
       <c r="G3">
-        <v>16.82497748260202</v>
+        <v>15.77251014820576</v>
       </c>
       <c r="H3">
-        <v>12.21223284225291</v>
+        <v>16.84744537104372</v>
       </c>
       <c r="I3">
-        <v>7.654974629373787</v>
+        <v>12.20040475323505</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.649241323472203</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.73895032683911</v>
+        <v>22.7385839692301</v>
       </c>
       <c r="C4">
-        <v>18.86769905731462</v>
+        <v>18.86403798644072</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.55503037439585</v>
+        <v>20.56098421508774</v>
       </c>
       <c r="F4">
-        <v>31.50882677320486</v>
+        <v>31.50211590005616</v>
       </c>
       <c r="G4">
-        <v>16.40664023645497</v>
+        <v>15.13695739191847</v>
       </c>
       <c r="H4">
-        <v>12.26291472865346</v>
+        <v>16.42869972584511</v>
       </c>
       <c r="I4">
-        <v>7.567076508005272</v>
+        <v>12.25186928730908</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.561672462716553</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.26146892509441</v>
+        <v>22.26115618430004</v>
       </c>
       <c r="C5">
-        <v>18.46776666342663</v>
+        <v>18.46423359000622</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.11817311397935</v>
+        <v>20.12400769260242</v>
       </c>
       <c r="F5">
-        <v>30.80354712420742</v>
+        <v>30.79697078724573</v>
       </c>
       <c r="G5">
-        <v>16.24419341762237</v>
+        <v>14.88160175320243</v>
       </c>
       <c r="H5">
-        <v>12.29292982923429</v>
+        <v>16.26611057382339</v>
       </c>
       <c r="I5">
-        <v>7.535911978925132</v>
+        <v>12.2822000506557</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.53064154230296</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.18130075329251</v>
+        <v>22.18099688813295</v>
       </c>
       <c r="C6">
-        <v>18.40065169525852</v>
+        <v>18.39713998725973</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.04487140663584</v>
+        <v>20.05068586681878</v>
       </c>
       <c r="F6">
-        <v>30.68541448102441</v>
+        <v>30.67886052698852</v>
       </c>
       <c r="G6">
-        <v>16.21770134747054</v>
+        <v>14.83942802221172</v>
       </c>
       <c r="H6">
-        <v>12.29845238942253</v>
+        <v>16.23959631372716</v>
       </c>
       <c r="I6">
-        <v>7.531009238035782</v>
+        <v>12.28777480358417</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.525760944960992</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.73256990470045</v>
+        <v>22.73220427221056</v>
       </c>
       <c r="C7">
-        <v>18.86235267403026</v>
+        <v>18.85869332214374</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.5491897096597</v>
+        <v>20.55514196305101</v>
       </c>
       <c r="F7">
-        <v>31.49938349757422</v>
+        <v>31.49267443606172</v>
       </c>
       <c r="G7">
-        <v>16.40441703532847</v>
+        <v>15.13349848755847</v>
       </c>
       <c r="H7">
-        <v>12.26328283414719</v>
+        <v>16.42647450805939</v>
       </c>
       <c r="I7">
-        <v>7.566637771410694</v>
+        <v>12.25224166438182</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.561235530667437</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.03823643094544</v>
+        <v>25.03759217725602</v>
       </c>
       <c r="C8">
-        <v>20.79838295376976</v>
+        <v>20.79408558592518</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.66538498849949</v>
+        <v>22.67189953872377</v>
       </c>
       <c r="F8">
-        <v>34.94421465886858</v>
+        <v>34.93682575332024</v>
       </c>
       <c r="G8">
-        <v>17.29905330598596</v>
+        <v>16.46245165437746</v>
       </c>
       <c r="H8">
-        <v>12.19276590808718</v>
+        <v>17.32203997207925</v>
       </c>
       <c r="I8">
-        <v>7.765526735134204</v>
+        <v>12.1800944664011</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.759440891810986</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.11785254948667</v>
+        <v>29.11661842174191</v>
       </c>
       <c r="C9">
-        <v>24.24524712445285</v>
+        <v>24.23971931498383</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.43902243201367</v>
+        <v>26.44647305187917</v>
       </c>
       <c r="F9">
-        <v>41.19222103320291</v>
+        <v>41.1834932704224</v>
       </c>
       <c r="G9">
-        <v>19.31239406639811</v>
+        <v>19.32303213267967</v>
       </c>
       <c r="H9">
-        <v>12.42046770976581</v>
+        <v>19.33796627395057</v>
       </c>
       <c r="I9">
-        <v>8.324410364468877</v>
+        <v>12.40459704917567</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.316984635434983</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.86154464748491</v>
+        <v>31.85982680097419</v>
       </c>
       <c r="C10">
-        <v>26.58052294131767</v>
+        <v>26.57407392425152</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.00043854040521</v>
+        <v>29.00846973523582</v>
       </c>
       <c r="F10">
-        <v>45.50183369684645</v>
+        <v>45.49208900472417</v>
       </c>
       <c r="G10">
-        <v>21.50271135701783</v>
+        <v>21.53245539726234</v>
       </c>
       <c r="H10">
-        <v>12.8648745223591</v>
+        <v>21.2210334550904</v>
       </c>
       <c r="I10">
-        <v>9.029738218417807</v>
+        <v>12.84675558379929</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.020942837142611</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.05868464323601</v>
+        <v>33.05672932053437</v>
       </c>
       <c r="C11">
-        <v>27.60427533938822</v>
+        <v>27.59739551832595</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.1246743376393</v>
+        <v>30.13294412914444</v>
       </c>
       <c r="F11">
-        <v>47.40965581181561</v>
+        <v>47.39943207690254</v>
       </c>
       <c r="G11">
-        <v>22.51173978360096</v>
+        <v>22.54295670358389</v>
       </c>
       <c r="H11">
-        <v>13.25395470376829</v>
+        <v>22.16990976094862</v>
       </c>
       <c r="I11">
-        <v>9.498751686895812</v>
+        <v>13.23376123287095</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.489578466038394</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.50506599240901</v>
+        <v>33.50301756564981</v>
       </c>
       <c r="C12">
-        <v>27.98680316163399</v>
+        <v>27.97975769963525</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>30.54497482771936</v>
+        <v>30.55333101695896</v>
       </c>
       <c r="F12">
-        <v>48.12536906160057</v>
+        <v>48.11496054677183</v>
       </c>
       <c r="G12">
-        <v>22.89507071181601</v>
+        <v>22.92684982802011</v>
       </c>
       <c r="H12">
-        <v>13.50090140339671</v>
+        <v>22.53188284738032</v>
       </c>
       <c r="I12">
-        <v>9.676738410528781</v>
+        <v>13.48046725203528</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.667420388836097</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.40923222795301</v>
+        <v>33.40720400625666</v>
       </c>
       <c r="C13">
-        <v>27.90464072555871</v>
+        <v>27.89763106342632</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>30.45468856469381</v>
+        <v>30.46302632805932</v>
       </c>
       <c r="F13">
-        <v>47.97151223179783</v>
+        <v>47.96114368165411</v>
       </c>
       <c r="G13">
-        <v>22.81244977796895</v>
+        <v>22.84410762084073</v>
       </c>
       <c r="H13">
-        <v>13.44750787285424</v>
+        <v>22.45379984546261</v>
       </c>
       <c r="I13">
-        <v>9.638382228098132</v>
+        <v>13.42712546959145</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.629095479921476</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.09554561400444</v>
+        <v>33.09358269957107</v>
       </c>
       <c r="C14">
-        <v>27.63584672958009</v>
+        <v>27.6289533365835</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.15935846319529</v>
+        <v>30.1676354439081</v>
       </c>
       <c r="F14">
-        <v>47.46866771269116</v>
+        <v>47.45842885019591</v>
       </c>
       <c r="G14">
-        <v>22.54324876990156</v>
+        <v>22.57451185426016</v>
       </c>
       <c r="H14">
-        <v>13.27417729427041</v>
+        <v>22.19963363071088</v>
       </c>
       <c r="I14">
-        <v>9.513384767268802</v>
+        <v>13.25396398089503</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.504199672147069</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.90251067144397</v>
+        <v>32.90058732367001</v>
       </c>
       <c r="C15">
-        <v>27.4705455673127</v>
+        <v>27.46372303939431</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>29.97776909732292</v>
+        <v>29.9860083219327</v>
       </c>
       <c r="F15">
-        <v>47.15981068325023</v>
+        <v>47.14965078412068</v>
       </c>
       <c r="G15">
-        <v>22.37853217601733</v>
+        <v>22.40955403177218</v>
       </c>
       <c r="H15">
-        <v>13.16861531443114</v>
+        <v>22.04430880391861</v>
       </c>
       <c r="I15">
-        <v>9.436881958896434</v>
+        <v>13.14850585625341</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.42775888409761</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.78231432282498</v>
+        <v>31.78061159082435</v>
       </c>
       <c r="C16">
-        <v>26.512875129919</v>
+        <v>26.50645396431174</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>28.92618112882453</v>
+        <v>28.93419619516663</v>
       </c>
       <c r="F16">
-        <v>45.37616164327919</v>
+        <v>45.36644784581712</v>
       </c>
       <c r="G16">
-        <v>21.43691334548641</v>
+        <v>21.46656176584805</v>
       </c>
       <c r="H16">
-        <v>12.84853459812132</v>
+        <v>21.15936986293037</v>
       </c>
       <c r="I16">
-        <v>8.999118975166427</v>
+        <v>12.83048065604687</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.990348082754233</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.08230861088976</v>
+        <v>31.08073631769738</v>
       </c>
       <c r="C17">
-        <v>25.91576340746461</v>
+        <v>25.90958492296729</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.27088479463765</v>
+        <v>28.27875563840679</v>
       </c>
       <c r="F17">
-        <v>44.26901585532819</v>
+        <v>44.2595708694023</v>
       </c>
       <c r="G17">
-        <v>20.86092232406788</v>
+        <v>20.88973639578144</v>
       </c>
       <c r="H17">
-        <v>12.71334435777012</v>
+        <v>20.62077041089273</v>
       </c>
       <c r="I17">
-        <v>8.730832231635343</v>
+        <v>12.69586512300645</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.722275032080876</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.67485983573724</v>
+        <v>30.67336097376526</v>
       </c>
       <c r="C18">
-        <v>25.56866234052658</v>
+        <v>25.56262239133702</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>27.89008803735304</v>
+        <v>27.89787354885235</v>
       </c>
       <c r="F18">
-        <v>43.62720214829525</v>
+        <v>43.61791030182166</v>
       </c>
       <c r="G18">
-        <v>20.53009893786862</v>
+        <v>20.55843623609647</v>
       </c>
       <c r="H18">
-        <v>12.64219449718006</v>
+        <v>20.31244438522332</v>
       </c>
       <c r="I18">
-        <v>8.609828306199097</v>
+        <v>12.62504985894364</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.601855353473278</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.53606535776095</v>
+        <v>30.53459110298389</v>
       </c>
       <c r="C19">
-        <v>25.45050025485943</v>
+        <v>25.44450705371725</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>27.7604759734571</v>
+        <v>27.7682321915163</v>
       </c>
       <c r="F19">
-        <v>43.40901104353669</v>
+        <v>43.3997708213704</v>
       </c>
       <c r="G19">
-        <v>20.41815716173467</v>
+        <v>20.44633358023628</v>
       </c>
       <c r="H19">
-        <v>12.61921480632766</v>
+        <v>20.20829265983324</v>
       </c>
       <c r="I19">
-        <v>8.582748053022828</v>
+        <v>12.60218410277561</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.574824609523219</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.15732208119737</v>
+        <v>31.15573607196154</v>
       </c>
       <c r="C20">
-        <v>25.97970284946516</v>
+        <v>25.9734986450873</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>28.34104140090707</v>
+        <v>28.3489278454354</v>
       </c>
       <c r="F20">
-        <v>44.38738663717361</v>
+        <v>44.37791319491419</v>
       </c>
       <c r="G20">
-        <v>20.92218590068421</v>
+        <v>20.95108846977594</v>
       </c>
       <c r="H20">
-        <v>12.7270459137845</v>
+        <v>20.67795168907458</v>
       </c>
       <c r="I20">
-        <v>8.759391004099552</v>
+        <v>12.709505071272</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.750811130718896</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.18786828586527</v>
+        <v>33.18588628134496</v>
       </c>
       <c r="C21">
-        <v>27.71493417233935</v>
+        <v>27.70800670355858</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.24624716872794</v>
+        <v>30.25454211283211</v>
       </c>
       <c r="F21">
-        <v>47.61654083098726</v>
+        <v>47.60626397705157</v>
       </c>
       <c r="G21">
-        <v>22.62228175832704</v>
+        <v>22.65366067392404</v>
       </c>
       <c r="H21">
-        <v>13.32496152936686</v>
+        <v>22.27421264459977</v>
       </c>
       <c r="I21">
-        <v>9.550085929078641</v>
+        <v>13.30469849428036</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.540871028398472</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.47465715367714</v>
+        <v>34.47239740917122</v>
       </c>
       <c r="C22">
-        <v>28.81925142794437</v>
+        <v>28.81183616114868</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.46007121770569</v>
+        <v>31.46860988755413</v>
       </c>
       <c r="F22">
-        <v>49.68820466638497</v>
+        <v>49.67738238960566</v>
       </c>
       <c r="G22">
-        <v>23.74090593014961</v>
+        <v>23.77392915133727</v>
       </c>
       <c r="H22">
-        <v>14.05255255113614</v>
+        <v>23.33321807053806</v>
       </c>
       <c r="I22">
-        <v>10.06929760032179</v>
+        <v>14.03159186709466</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.05965723305474</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.79142003524321</v>
+        <v>33.78931051705676</v>
       </c>
       <c r="C23">
-        <v>28.23243012458698</v>
+        <v>28.2252769003417</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>30.8149236323591</v>
+        <v>30.82333446960205</v>
       </c>
       <c r="F23">
-        <v>48.58575208691838</v>
+        <v>48.57522317787378</v>
       </c>
       <c r="G23">
-        <v>23.14299682786748</v>
+        <v>23.17514015548707</v>
       </c>
       <c r="H23">
-        <v>13.66166187701143</v>
+        <v>22.76640138156612</v>
       </c>
       <c r="I23">
-        <v>9.791820655716096</v>
+        <v>13.64107281778024</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.782408569942126</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.12342411241611</v>
+        <v>31.12184430901338</v>
       </c>
       <c r="C24">
-        <v>25.95080773571021</v>
+        <v>25.94461516229985</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.30933627367454</v>
+        <v>28.31721567260843</v>
       </c>
       <c r="F24">
-        <v>44.33388777852011</v>
+        <v>44.32442720566859</v>
       </c>
       <c r="G24">
-        <v>20.89448766890033</v>
+        <v>20.92335021923384</v>
       </c>
       <c r="H24">
-        <v>12.720831026422</v>
+        <v>20.65209594170648</v>
       </c>
       <c r="I24">
-        <v>8.746479876087159</v>
+        <v>12.70331802382676</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.737910255436573</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.05998500143674</v>
+        <v>28.05891736616013</v>
       </c>
       <c r="C25">
-        <v>23.34867524329713</v>
+        <v>23.34348093569259</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.45668329270963</v>
+        <v>25.46389893175314</v>
       </c>
       <c r="F25">
-        <v>39.55369815404579</v>
+        <v>39.54533584533088</v>
       </c>
       <c r="G25">
-        <v>18.73950445234363</v>
+        <v>18.51193753661848</v>
       </c>
       <c r="H25">
-        <v>12.31395228741139</v>
+        <v>18.76429657061448</v>
       </c>
       <c r="I25">
-        <v>8.153412530832712</v>
+        <v>12.29893701821854</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.146348026443926</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.63181134637213</v>
+        <v>19.99842122821999</v>
       </c>
       <c r="C2">
-        <v>21.29428732071948</v>
+        <v>13.02895039568929</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.21936377238516</v>
+        <v>6.054705311996849</v>
       </c>
       <c r="F2">
-        <v>35.83484009294297</v>
+        <v>65.63559807515531</v>
       </c>
       <c r="G2">
-        <v>16.82964098477196</v>
+        <v>2.137958417140227</v>
       </c>
       <c r="H2">
-        <v>17.58210161684864</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.18322515647598</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.82393999671223</v>
+        <v>11.37885525905028</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.87618208998779</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3.204837300927878</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.874522191126</v>
+        <v>18.88246702085478</v>
       </c>
       <c r="C3">
-        <v>19.81665741319117</v>
+        <v>12.05932009595784</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.60258001481132</v>
+        <v>5.801999654959793</v>
       </c>
       <c r="F3">
-        <v>33.19122175477258</v>
+        <v>62.31553703294441</v>
       </c>
       <c r="G3">
-        <v>15.77251014820576</v>
+        <v>2.152418289657177</v>
       </c>
       <c r="H3">
-        <v>16.84744537104372</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.20040475323505</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.649241323472203</v>
+        <v>11.01539384514416</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.92854632862</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3.381350213781972</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.7385839692301</v>
+        <v>18.19347669990024</v>
       </c>
       <c r="C4">
-        <v>18.86403798644072</v>
+        <v>11.43789698436096</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.56098421508774</v>
+        <v>5.647560771810872</v>
       </c>
       <c r="F4">
-        <v>31.50211590005616</v>
+        <v>60.2402200587085</v>
       </c>
       <c r="G4">
-        <v>15.13695739191847</v>
+        <v>2.161432615113704</v>
       </c>
       <c r="H4">
-        <v>16.42869972584511</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>12.25186928730908</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.561672462716553</v>
+        <v>10.79136583568885</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.34238016317855</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3.518267037939994</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.26115618430004</v>
+        <v>17.91198558848439</v>
       </c>
       <c r="C5">
-        <v>18.46423359000622</v>
+        <v>11.17790300367905</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.12400769260242</v>
+        <v>5.584820092923672</v>
       </c>
       <c r="F5">
-        <v>30.79697078724573</v>
+        <v>59.38552564604327</v>
       </c>
       <c r="G5">
-        <v>14.88160175320243</v>
+        <v>2.1651455327649</v>
       </c>
       <c r="H5">
-        <v>16.26611057382339</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>12.2822000506557</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.53064154230296</v>
+        <v>10.69982946891522</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.10260705721395</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3.574733881673806</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.18099688813295</v>
+        <v>17.86520908992521</v>
       </c>
       <c r="C6">
-        <v>18.39713998725973</v>
+        <v>11.13431735689947</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.05068586681878</v>
+        <v>5.574414381288625</v>
       </c>
       <c r="F6">
-        <v>30.67886052698852</v>
+        <v>59.24307293602838</v>
       </c>
       <c r="G6">
-        <v>14.83942802221172</v>
+        <v>2.165764591735616</v>
       </c>
       <c r="H6">
-        <v>16.23959631372716</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>12.28777480358417</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.525760944960992</v>
+        <v>10.6846147019656</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.0627449182178</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3.584153060403803</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.73220427221056</v>
+        <v>18.18968296436943</v>
       </c>
       <c r="C7">
-        <v>18.85869332214374</v>
+        <v>11.43441823822464</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.55514196305101</v>
+        <v>5.646713816820109</v>
       </c>
       <c r="F7">
-        <v>31.49267443606172</v>
+        <v>60.22872924748965</v>
       </c>
       <c r="G7">
-        <v>15.13349848755847</v>
+        <v>2.161482522200401</v>
       </c>
       <c r="H7">
-        <v>16.42647450805939</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>12.25224166438182</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.561235530667437</v>
+        <v>10.79013235465851</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.33914987391944</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>3.519025742734915</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.03759217725602</v>
+        <v>19.6145367414687</v>
       </c>
       <c r="C8">
-        <v>20.79408558592518</v>
+        <v>12.69990246509195</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.67189953872377</v>
+        <v>5.967425807982518</v>
       </c>
       <c r="F8">
-        <v>34.93682575332024</v>
+        <v>64.49857407213293</v>
       </c>
       <c r="G8">
-        <v>16.46245165437746</v>
+        <v>2.14291936354331</v>
       </c>
       <c r="H8">
-        <v>17.32203997207925</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12.1800944664011</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.759440891810986</v>
+        <v>11.25369224616093</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.55041600398117</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3.237310140399813</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.11661842174191</v>
+        <v>22.37353552034386</v>
       </c>
       <c r="C9">
-        <v>24.23971931498383</v>
+        <v>14.985099966907</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.44647305187917</v>
+        <v>6.60230525257183</v>
       </c>
       <c r="F9">
-        <v>41.1834932704224</v>
+        <v>72.57907248609096</v>
       </c>
       <c r="G9">
-        <v>19.32303213267967</v>
+        <v>2.107321026754812</v>
       </c>
       <c r="H9">
-        <v>19.33796627395057</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.40459704917567</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.316984635434983</v>
+        <v>12.15793781962613</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.23234749809383</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.585250421744929</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.85982680097419</v>
+        <v>24.63914392724556</v>
       </c>
       <c r="C10">
-        <v>26.57407392425152</v>
+        <v>16.56102749434676</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.00846973523582</v>
+        <v>7.074101175295178</v>
       </c>
       <c r="F10">
-        <v>45.49208900472417</v>
+        <v>78.3535464993715</v>
       </c>
       <c r="G10">
-        <v>21.53245539726234</v>
+        <v>2.081210901213223</v>
       </c>
       <c r="H10">
-        <v>21.2210334550904</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12.84675558379929</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9.020942837142611</v>
+        <v>12.82373891288604</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.2707803886982</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.907766497049688</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.05672932053437</v>
+        <v>25.663993545347</v>
       </c>
       <c r="C11">
-        <v>27.59739551832595</v>
+        <v>17.26011285596309</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.13294412914444</v>
+        <v>7.290738981649075</v>
       </c>
       <c r="F11">
-        <v>47.39943207690254</v>
+        <v>80.9540324735886</v>
       </c>
       <c r="G11">
-        <v>22.54295670358389</v>
+        <v>2.069220051067628</v>
       </c>
       <c r="H11">
-        <v>22.16990976094862</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>13.23376123287095</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>9.489578466038394</v>
+        <v>13.12843960603079</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.17704551082334</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4.055529492672754</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.50301756564981</v>
+        <v>26.05015367704685</v>
       </c>
       <c r="C12">
-        <v>27.97975769963525</v>
+        <v>17.52273459052472</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>30.55333101695896</v>
+        <v>7.373172628404869</v>
       </c>
       <c r="F12">
-        <v>48.11496054677183</v>
+        <v>81.9361038275668</v>
       </c>
       <c r="G12">
-        <v>22.92684982802011</v>
+        <v>2.064650654387439</v>
       </c>
       <c r="H12">
-        <v>22.53188284738032</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>13.48046725203528</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>9.667420388836097</v>
+        <v>13.24425511379621</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.51775301206089</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4.111794536305399</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.40720400625666</v>
+        <v>25.96706261432757</v>
       </c>
       <c r="C13">
-        <v>27.89763106342632</v>
+        <v>17.46625985850441</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>30.46302632805932</v>
+        <v>7.355399275445361</v>
       </c>
       <c r="F13">
-        <v>47.96114368165411</v>
+        <v>81.7246946240044</v>
       </c>
       <c r="G13">
-        <v>22.84410762084073</v>
+        <v>2.065636256631097</v>
       </c>
       <c r="H13">
-        <v>22.45379984546261</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>13.42712546959145</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>9.629095479921476</v>
+        <v>13.21928976816358</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.44447569978165</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>4.099660183707817</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.09358269957107</v>
+        <v>25.6957981463507</v>
       </c>
       <c r="C14">
-        <v>27.6289533365835</v>
+        <v>17.28175822472191</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.1676354439081</v>
+        <v>7.297512131577302</v>
       </c>
       <c r="F14">
-        <v>47.45842885019591</v>
+        <v>81.03487405389836</v>
       </c>
       <c r="G14">
-        <v>22.57451185426016</v>
+        <v>2.068844779327031</v>
       </c>
       <c r="H14">
-        <v>22.19963363071088</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>13.25396398089503</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>9.504199672147069</v>
+        <v>13.13795802642155</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.20512178930335</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.06015121020109</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.90058732367001</v>
+        <v>25.52940851061711</v>
       </c>
       <c r="C15">
-        <v>27.46372303939431</v>
+        <v>17.16848619150996</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>29.9860083219327</v>
+        <v>7.262110180700862</v>
       </c>
       <c r="F15">
-        <v>47.14965078412068</v>
+        <v>80.61202964360969</v>
       </c>
       <c r="G15">
-        <v>22.40955403177218</v>
+        <v>2.070805942680967</v>
       </c>
       <c r="H15">
-        <v>22.04430880391861</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>13.14850585625341</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>9.42775888409761</v>
+        <v>13.08820204598832</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.05820642261752</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4.035996488090163</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.78061159082435</v>
+        <v>24.5718646254975</v>
       </c>
       <c r="C16">
-        <v>26.50645396431174</v>
+        <v>16.51501924402297</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>28.93419619516663</v>
+        <v>7.05999235503973</v>
       </c>
       <c r="F16">
-        <v>45.36644784581712</v>
+        <v>78.18315556300351</v>
       </c>
       <c r="G16">
-        <v>21.46656176584805</v>
+        <v>2.081991240986791</v>
       </c>
       <c r="H16">
-        <v>21.15936986293037</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12.83048065604687</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8.990348082754233</v>
+        <v>12.80387621951022</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.21117509108654</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3.898143932698675</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.08073631769738</v>
+        <v>23.98037659296771</v>
       </c>
       <c r="C17">
-        <v>25.90958492296729</v>
+        <v>16.10987532653209</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.27875563840679</v>
+        <v>6.936581658142519</v>
       </c>
       <c r="F17">
-        <v>44.2595708694023</v>
+        <v>76.68705450216292</v>
       </c>
       <c r="G17">
-        <v>20.88973639578144</v>
+        <v>2.088815900477426</v>
       </c>
       <c r="H17">
-        <v>20.62077041089273</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>12.69586512300645</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8.722275032080876</v>
+        <v>12.63002599671847</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.68651963491101</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3.813949234946742</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.67336097376526</v>
+        <v>23.63850588655513</v>
       </c>
       <c r="C18">
-        <v>25.56262239133702</v>
+        <v>15.87513927315025</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>27.89787354885235</v>
+        <v>6.865780405375213</v>
       </c>
       <c r="F18">
-        <v>43.61791030182166</v>
+        <v>75.82397017589395</v>
       </c>
       <c r="G18">
-        <v>20.55843623609647</v>
+        <v>2.092731471316388</v>
       </c>
       <c r="H18">
-        <v>20.31244438522332</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>12.62504985894364</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.601855353473278</v>
+        <v>12.53019114276229</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.38273368637943</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>3.765610315384799</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.53459110298389</v>
+        <v>23.52245437301839</v>
       </c>
       <c r="C19">
-        <v>25.44450705371725</v>
+        <v>15.79535575446495</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>27.7682321915163</v>
+        <v>6.841836739264173</v>
       </c>
       <c r="F19">
-        <v>43.3997708213704</v>
+        <v>75.53127554710882</v>
       </c>
       <c r="G19">
-        <v>20.44633358023628</v>
+        <v>2.094055877423339</v>
       </c>
       <c r="H19">
-        <v>20.20829265983324</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>12.60218410277561</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>8.574824609523219</v>
+        <v>12.49641165311651</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.27951542345674</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>3.749254236069043</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.15573607196154</v>
+        <v>24.04351003439619</v>
       </c>
       <c r="C20">
-        <v>25.9734986450873</v>
+        <v>16.15317731973037</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>28.3489278454354</v>
+        <v>6.949699503181858</v>
       </c>
       <c r="F20">
-        <v>44.37791319491419</v>
+        <v>76.84657569215322</v>
       </c>
       <c r="G20">
-        <v>20.95108846977594</v>
+        <v>2.088090500272877</v>
       </c>
       <c r="H20">
-        <v>20.67795168907458</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>12.709505071272</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8.750811130718896</v>
+        <v>12.64851508455752</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.74257533387181</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>3.822901768718804</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.18588628134496</v>
+        <v>25.77552231979107</v>
       </c>
       <c r="C21">
-        <v>27.70800670355858</v>
+        <v>17.33600396516953</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.25454211283211</v>
+        <v>7.314503158023326</v>
       </c>
       <c r="F21">
-        <v>47.60626397705157</v>
+        <v>81.23755305170258</v>
       </c>
       <c r="G21">
-        <v>22.65366067392404</v>
+        <v>2.06790324878019</v>
       </c>
       <c r="H21">
-        <v>22.27421264459977</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>13.30469849428036</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>9.540871028398472</v>
+        <v>13.16183382889885</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.27548808503738</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>4.071746108925627</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.47239740917122</v>
+        <v>26.89661928647271</v>
       </c>
       <c r="C22">
-        <v>28.81183616114868</v>
+        <v>18.09704527396629</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.46860988755413</v>
+        <v>7.555318668243556</v>
       </c>
       <c r="F22">
-        <v>49.67738238960566</v>
+        <v>84.09249887553484</v>
       </c>
       <c r="G22">
-        <v>23.77392915133727</v>
+        <v>2.054534713298213</v>
       </c>
       <c r="H22">
-        <v>23.33321807053806</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>14.03159186709466</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>10.05965723305474</v>
+        <v>13.49994866567532</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.26324739408004</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>4.236286581593483</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.78931051705676</v>
+        <v>26.29904252711393</v>
       </c>
       <c r="C23">
-        <v>28.2252769003417</v>
+        <v>17.69178856050737</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>30.82333446960205</v>
+        <v>7.426526260166606</v>
       </c>
       <c r="F23">
-        <v>48.57522317787378</v>
+        <v>82.56965109111886</v>
       </c>
       <c r="G23">
-        <v>23.17514015548707</v>
+        <v>2.061690518807483</v>
       </c>
       <c r="H23">
-        <v>22.76640138156612</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>13.64107281778024</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>9.782408569942126</v>
+        <v>13.31918120902598</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.73713872609394</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>4.148232916967374</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.12184430901338</v>
+        <v>24.01497310245394</v>
       </c>
       <c r="C24">
-        <v>25.94461516229985</v>
+        <v>16.13360616995246</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.31721567260843</v>
+        <v>6.94376846822381</v>
       </c>
       <c r="F24">
-        <v>44.32442720566859</v>
+        <v>76.7744654481662</v>
       </c>
       <c r="G24">
-        <v>20.92335021923384</v>
+        <v>2.088418477774407</v>
       </c>
       <c r="H24">
-        <v>20.65209594170648</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>12.70331802382676</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>8.737910255436573</v>
+        <v>12.64015582506451</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.7172393029789</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3.818854135050929</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.05891736616013</v>
+        <v>21.63120642707902</v>
       </c>
       <c r="C25">
-        <v>23.34348093569259</v>
+        <v>14.38633523839197</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.46389893175314</v>
+        <v>6.429813386164988</v>
       </c>
       <c r="F25">
-        <v>39.54533584533088</v>
+        <v>70.42363015918821</v>
       </c>
       <c r="G25">
-        <v>18.51193753661848</v>
+        <v>2.116907279056998</v>
       </c>
       <c r="H25">
-        <v>18.76429657061448</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>12.29893701821854</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.146348026443926</v>
+        <v>11.91346330785627</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.45994098020667</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3.466494498857287</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.99842122821999</v>
+        <v>27.22560932572408</v>
       </c>
       <c r="C2">
-        <v>13.02895039568929</v>
+        <v>17.5119987093748</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.054705311996849</v>
+        <v>7.075548572304395</v>
       </c>
       <c r="F2">
-        <v>65.63559807515531</v>
+        <v>40.92725525416004</v>
       </c>
       <c r="G2">
-        <v>2.137958417140227</v>
+        <v>2.114575062619717</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.37885525905028</v>
+        <v>6.559879653780547</v>
       </c>
       <c r="K2">
-        <v>16.87618208998779</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.204837300927878</v>
+        <v>5.775662244992176</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.91611968422403</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15.66329442215332</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.88246702085478</v>
+        <v>25.60903997953264</v>
       </c>
       <c r="C3">
-        <v>12.05932009595784</v>
+        <v>16.22055268077158</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.801999654959793</v>
+        <v>6.784334663607461</v>
       </c>
       <c r="F3">
-        <v>62.31553703294441</v>
+        <v>39.63037373271486</v>
       </c>
       <c r="G3">
-        <v>2.152418289657177</v>
+        <v>2.127988976090488</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.01539384514416</v>
+        <v>6.651723663221619</v>
       </c>
       <c r="K3">
-        <v>15.92854632862</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.381350213781972</v>
+        <v>5.740584595431449</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.35019213155362</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>15.83876989157041</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.19347669990024</v>
+        <v>24.59114763139141</v>
       </c>
       <c r="C4">
-        <v>11.43789698436096</v>
+        <v>15.39151666300119</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.647560771810872</v>
+        <v>6.603233641497347</v>
       </c>
       <c r="F4">
-        <v>60.2402200587085</v>
+        <v>38.85240306609206</v>
       </c>
       <c r="G4">
-        <v>2.161432615113704</v>
+        <v>2.1363844925063</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.79136583568885</v>
+        <v>6.709536155999658</v>
       </c>
       <c r="K4">
-        <v>15.34238016317855</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>3.518267037939994</v>
+        <v>5.721186607694565</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.00396703252121</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15.95155084804601</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.91198558848439</v>
+        <v>24.17025229492725</v>
       </c>
       <c r="C5">
-        <v>11.17790300367905</v>
+        <v>15.04439011500424</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.584820092923672</v>
+        <v>6.528811068018994</v>
       </c>
       <c r="F5">
-        <v>59.38552564604327</v>
+        <v>38.54009024242438</v>
       </c>
       <c r="G5">
-        <v>2.1651455327649</v>
+        <v>2.139849825598103</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.69982946891522</v>
+        <v>6.733460067257272</v>
       </c>
       <c r="K5">
-        <v>15.10260705721395</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3.574733881673806</v>
+        <v>5.713814759319657</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.86332854260075</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>15.99873659707921</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.86520908992521</v>
+        <v>24.10000475894629</v>
       </c>
       <c r="C6">
-        <v>11.13431735689947</v>
+        <v>14.98618321324927</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.574414381288625</v>
+        <v>6.516414576377675</v>
       </c>
       <c r="F6">
-        <v>59.24307293602838</v>
+        <v>38.48851947318703</v>
       </c>
       <c r="G6">
-        <v>2.165764591735616</v>
+        <v>2.140428015609861</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.6846147019656</v>
+        <v>6.737454886204223</v>
       </c>
       <c r="K6">
-        <v>15.0627449182178</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>3.584153060403803</v>
+        <v>5.7126227139916</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.8400072302231</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>16.00664477408176</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.18968296436943</v>
+        <v>24.58549553659219</v>
       </c>
       <c r="C7">
-        <v>11.43441823822464</v>
+        <v>15.38687306610884</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.646713816820109</v>
+        <v>6.602232523710757</v>
       </c>
       <c r="F7">
-        <v>60.22872924748965</v>
+        <v>38.84817184572389</v>
       </c>
       <c r="G7">
-        <v>2.161482522200401</v>
+        <v>2.136431043605709</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.79013235465851</v>
+        <v>6.709857314342102</v>
       </c>
       <c r="K7">
-        <v>15.33914987391944</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>3.519025742734915</v>
+        <v>5.721085036941528</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.00206831213426</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>15.95218229395366</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.6145367414687</v>
+        <v>26.67359753065305</v>
       </c>
       <c r="C8">
-        <v>12.69990246509195</v>
+        <v>17.07406107325667</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.967425807982518</v>
+        <v>6.97558267464591</v>
       </c>
       <c r="F8">
-        <v>64.49857407213293</v>
+        <v>40.47634475004757</v>
       </c>
       <c r="G8">
-        <v>2.14291936354331</v>
+        <v>2.119169657963193</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.25369224616093</v>
+        <v>6.591257334095826</v>
       </c>
       <c r="K8">
-        <v>16.55041600398117</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.237310140399813</v>
+        <v>5.763120213865224</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.72080086799546</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>15.72272640815782</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.37353552034386</v>
+        <v>30.5613415225368</v>
       </c>
       <c r="C9">
-        <v>14.985099966907</v>
+        <v>20.10726780753144</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.60230525257183</v>
+        <v>7.692352920081811</v>
       </c>
       <c r="F9">
-        <v>72.57907248609096</v>
+        <v>43.81182981882057</v>
       </c>
       <c r="G9">
-        <v>2.107321026754812</v>
+        <v>2.086380423492432</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.15793781962613</v>
+        <v>6.36962737631373</v>
       </c>
       <c r="K9">
-        <v>19.23234749809383</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>3.585250421744929</v>
+        <v>5.862782276689196</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.13562189080492</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>15.31492590456133</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.63914392724556</v>
+        <v>33.32855357707811</v>
       </c>
       <c r="C10">
-        <v>16.56102749434676</v>
+        <v>22.18532188396271</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.074101175295178</v>
+        <v>8.214900638535502</v>
       </c>
       <c r="F10">
-        <v>78.3535464993715</v>
+        <v>46.35023698887716</v>
       </c>
       <c r="G10">
-        <v>2.081210901213223</v>
+        <v>2.062612506568277</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.82373891288604</v>
+        <v>6.213101214271437</v>
       </c>
       <c r="K10">
-        <v>21.2707803886982</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>3.907766497049688</v>
+        <v>5.946919750559946</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.17455967393182</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>15.04475209396027</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.663993545347</v>
+        <v>34.63496624691133</v>
       </c>
       <c r="C11">
-        <v>17.26011285596309</v>
+        <v>23.10261958226268</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.290738981649075</v>
+        <v>8.453363477207571</v>
       </c>
       <c r="F11">
-        <v>80.9540324735886</v>
+        <v>47.52590806502021</v>
       </c>
       <c r="G11">
-        <v>2.069220051067628</v>
+        <v>2.051784017158753</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.12843960603079</v>
+        <v>6.143221229201167</v>
       </c>
       <c r="K11">
-        <v>22.17704551082334</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>4.055529492672754</v>
+        <v>5.987680187669018</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>17.64702349453906</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>14.9293180589632</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.05015367704685</v>
+        <v>35.12471241586584</v>
       </c>
       <c r="C12">
-        <v>17.52273459052472</v>
+        <v>23.446400343876</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.373172628404869</v>
+        <v>8.543945891680091</v>
       </c>
       <c r="F12">
-        <v>81.9361038275668</v>
+        <v>47.97439927452103</v>
       </c>
       <c r="G12">
-        <v>2.064650654387439</v>
+        <v>2.047672705309166</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.24425511379621</v>
+        <v>6.116950948530636</v>
       </c>
       <c r="K12">
-        <v>22.51775301206089</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4.111794536305399</v>
+        <v>6.003484317010717</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>17.82596120872463</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14.88679535836854</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.96706261432757</v>
+        <v>35.01944951049177</v>
       </c>
       <c r="C13">
-        <v>17.46625985850441</v>
+        <v>23.37251231192366</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.355399275445361</v>
+        <v>8.524421652412276</v>
       </c>
       <c r="F13">
-        <v>81.7246946240044</v>
+        <v>47.87765651828148</v>
       </c>
       <c r="G13">
-        <v>2.065636256631097</v>
+        <v>2.04855877921485</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.21928976816358</v>
+        <v>6.122600128272682</v>
       </c>
       <c r="K13">
-        <v>22.44447569978165</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>4.099660183707817</v>
+        <v>6.000063988961591</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>17.78742133529874</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.89589838016555</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.6957981463507</v>
+        <v>34.67535456926458</v>
       </c>
       <c r="C14">
-        <v>17.28175822472191</v>
+        <v>23.13097155571024</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.297512131577302</v>
+        <v>8.460808973733975</v>
       </c>
       <c r="F14">
-        <v>81.03487405389836</v>
+        <v>47.56273771327491</v>
       </c>
       <c r="G14">
-        <v>2.068844779327031</v>
+        <v>2.051446046673953</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.13795802642155</v>
+        <v>6.141056091713144</v>
       </c>
       <c r="K14">
-        <v>22.20512178930335</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>4.06015121020109</v>
+        <v>5.988972931093861</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>17.6617438415424</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.92579510288484</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.52940851061711</v>
+        <v>34.46395477121678</v>
       </c>
       <c r="C15">
-        <v>17.16848619150996</v>
+        <v>22.98256917781062</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.262110180700862</v>
+        <v>8.421886842214942</v>
       </c>
       <c r="F15">
-        <v>80.61202964360969</v>
+        <v>47.37027977531191</v>
       </c>
       <c r="G15">
-        <v>2.070805942680967</v>
+        <v>2.05321290153214</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.08820204598832</v>
+        <v>6.152385984623127</v>
       </c>
       <c r="K15">
-        <v>22.05820642261752</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>4.035996488090163</v>
+        <v>5.98222778570275</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>17.58476836885523</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>14.94426646401676</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.5718646254975</v>
+        <v>33.24245567914323</v>
       </c>
       <c r="C16">
-        <v>16.51501924402297</v>
+        <v>22.12484734726579</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.05999235503973</v>
+        <v>8.1993456829859</v>
       </c>
       <c r="F16">
-        <v>78.18315556300351</v>
+        <v>46.27384648748302</v>
       </c>
       <c r="G16">
-        <v>2.081991240986791</v>
+        <v>2.063319152487766</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.80387621951022</v>
+        <v>6.217694706499923</v>
       </c>
       <c r="K16">
-        <v>21.21117509108654</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3.898143932698675</v>
+        <v>5.94430691364504</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>17.14368298590233</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>15.05245564896492</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.98037659296771</v>
+        <v>32.50730606339459</v>
       </c>
       <c r="C17">
-        <v>16.10987532653209</v>
+        <v>21.59178494788096</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.936581658142519</v>
+        <v>8.063128959351138</v>
       </c>
       <c r="F17">
-        <v>76.68705450216292</v>
+        <v>45.60674311723235</v>
       </c>
       <c r="G17">
-        <v>2.088815900477426</v>
+        <v>2.069509215173428</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.63002599671847</v>
+        <v>6.258098423711036</v>
       </c>
       <c r="K17">
-        <v>20.68651963491101</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>3.813949234946742</v>
+        <v>5.921687836385767</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>16.87307140933994</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>15.12081457774226</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.63850588655513</v>
+        <v>32.10012617631637</v>
       </c>
       <c r="C18">
-        <v>15.87513927315025</v>
+        <v>21.28251364471161</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.865780405375213</v>
+        <v>7.984839226009329</v>
       </c>
       <c r="F18">
-        <v>75.82397017589395</v>
+        <v>45.22498997806175</v>
       </c>
       <c r="G18">
-        <v>2.092731471316388</v>
+        <v>2.073068613339121</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.53019114276229</v>
+        <v>6.281461966045583</v>
       </c>
       <c r="K18">
-        <v>20.38273368637943</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>3.765610315384799</v>
+        <v>5.908911100346204</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>16.71740265174942</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>15.16082773434318</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.52245437301839</v>
+        <v>31.96184020499533</v>
       </c>
       <c r="C19">
-        <v>15.79535575446495</v>
+        <v>21.17732888352693</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.841836739264173</v>
+        <v>7.95833701938727</v>
       </c>
       <c r="F19">
-        <v>75.53127554710882</v>
+        <v>45.09606281547796</v>
       </c>
       <c r="G19">
-        <v>2.094055877423339</v>
+        <v>2.074273835633468</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.49641165311651</v>
+        <v>6.289393849881408</v>
       </c>
       <c r="K19">
-        <v>20.27951542345674</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3.749254236069043</v>
+        <v>5.904624850244189</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>16.66469172406343</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>15.17449169339833</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.04351003439619</v>
+        <v>32.58246724774942</v>
       </c>
       <c r="C20">
-        <v>16.15317731973037</v>
+        <v>21.64880343176491</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.949699503181858</v>
+        <v>8.077622264998547</v>
       </c>
       <c r="F20">
-        <v>76.84657569215322</v>
+        <v>45.6775542657359</v>
       </c>
       <c r="G20">
-        <v>2.088090500272877</v>
+        <v>2.068850429049536</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.64851508455752</v>
+        <v>6.253784508487126</v>
       </c>
       <c r="K20">
-        <v>20.74257533387181</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3.822901768718804</v>
+        <v>5.92407146900725</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.90188035933491</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>15.1134649673638</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.77552231979107</v>
+        <v>34.77655431375352</v>
       </c>
       <c r="C21">
-        <v>17.33600396516953</v>
+        <v>23.20201115930367</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.314503158023326</v>
+        <v>8.479484344980971</v>
       </c>
       <c r="F21">
-        <v>81.23755305170258</v>
+        <v>47.65514484703961</v>
       </c>
       <c r="G21">
-        <v>2.06790324878019</v>
+        <v>2.050598353332554</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.16183382889885</v>
+        <v>6.135629892156667</v>
       </c>
       <c r="K21">
-        <v>22.27548808503738</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>4.071746108925627</v>
+        <v>5.992220522651768</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.69865704203357</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.91698038637094</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.89661928647271</v>
+        <v>36.19334789979736</v>
       </c>
       <c r="C22">
-        <v>18.09704527396629</v>
+        <v>24.1965176639577</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.555318668243556</v>
+        <v>8.743875499481325</v>
       </c>
       <c r="F22">
-        <v>84.09249887553484</v>
+        <v>48.96701765982692</v>
       </c>
       <c r="G22">
-        <v>2.054534713298213</v>
+        <v>2.038601676728217</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.49994866567532</v>
+        <v>6.059530699300835</v>
       </c>
       <c r="K22">
-        <v>23.26324739408004</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4.236286581593483</v>
+        <v>6.038918334279765</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.21960569178206</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>14.79557202858178</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.29904252711393</v>
+        <v>35.43962805384664</v>
       </c>
       <c r="C23">
-        <v>17.69178856050737</v>
+        <v>23.667448549911</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.426526260166606</v>
+        <v>8.602537262789529</v>
       </c>
       <c r="F23">
-        <v>82.56965109111886</v>
+        <v>48.26494434632503</v>
       </c>
       <c r="G23">
-        <v>2.061690518807483</v>
+        <v>2.04501389930099</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.31918120902598</v>
+        <v>6.10004201657093</v>
       </c>
       <c r="K23">
-        <v>22.73713872609394</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>4.148232916967374</v>
+        <v>6.013792778498817</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.9415177484757</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.85968441149244</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.01497310245394</v>
+        <v>32.54849498219572</v>
       </c>
       <c r="C24">
-        <v>16.13360616995246</v>
+        <v>21.62303415010606</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.94376846822381</v>
+        <v>8.07106978215592</v>
       </c>
       <c r="F24">
-        <v>76.7744654481662</v>
+        <v>45.64553504091628</v>
       </c>
       <c r="G24">
-        <v>2.088418477774407</v>
+        <v>2.069148263617889</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.64015582506451</v>
+        <v>6.255734409422817</v>
       </c>
       <c r="K24">
-        <v>20.7172393029789</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>3.818854135050929</v>
+        <v>5.922993121619028</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.88885611809842</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>15.11678551480683</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.63120642707902</v>
+        <v>29.53220036794819</v>
       </c>
       <c r="C25">
-        <v>14.38633523839197</v>
+        <v>19.31452125078672</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.429813386164988</v>
+        <v>7.499622308599058</v>
       </c>
       <c r="F25">
-        <v>70.42363015918821</v>
+        <v>42.89437904950825</v>
       </c>
       <c r="G25">
-        <v>2.116907279056998</v>
+        <v>2.095168195141957</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.91346330785627</v>
+        <v>6.428455492246887</v>
       </c>
       <c r="K25">
-        <v>18.45994098020667</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>3.466494498857287</v>
+        <v>5.833937266366081</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.75281711436024</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>15.4203913780131</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.22560932572408</v>
+        <v>26.93347275024401</v>
       </c>
       <c r="C2">
-        <v>17.5119987093748</v>
+        <v>10.79180077743248</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.075548572304395</v>
+        <v>9.530651036881768</v>
       </c>
       <c r="F2">
-        <v>40.92725525416004</v>
+        <v>51.02769897572396</v>
       </c>
       <c r="G2">
-        <v>2.114575062619717</v>
+        <v>3.767228628479839</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.559879653780547</v>
+        <v>10.66347546743639</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.775662244992176</v>
+        <v>10.80256174471938</v>
       </c>
       <c r="M2">
-        <v>14.91611968422403</v>
+        <v>20.62101746361374</v>
       </c>
       <c r="N2">
-        <v>15.66329442215332</v>
+        <v>22.88875440455603</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.60903997953264</v>
+        <v>26.62515783084871</v>
       </c>
       <c r="C3">
-        <v>16.22055268077158</v>
+        <v>10.30293347031096</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.784334663607461</v>
+        <v>9.460399037181066</v>
       </c>
       <c r="F3">
-        <v>39.63037373271486</v>
+        <v>50.90712187817036</v>
       </c>
       <c r="G3">
-        <v>2.127988976090488</v>
+        <v>3.771850442160405</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.651723663221619</v>
+        <v>10.6893809605731</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.740584595431449</v>
+        <v>10.8203071916697</v>
       </c>
       <c r="M3">
-        <v>14.35019213155362</v>
+        <v>20.58735820633351</v>
       </c>
       <c r="N3">
-        <v>15.83876989157041</v>
+        <v>22.93784059433014</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.59114763139141</v>
+        <v>26.44221883679043</v>
       </c>
       <c r="C4">
-        <v>15.39151666300119</v>
+        <v>9.994378523491442</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.603233641497347</v>
+        <v>9.416199038851149</v>
       </c>
       <c r="F4">
-        <v>38.85240306609206</v>
+        <v>50.84441049598794</v>
       </c>
       <c r="G4">
-        <v>2.1363844925063</v>
+        <v>3.774833378818084</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.709536155999658</v>
+        <v>10.70612869831473</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.721186607694565</v>
+        <v>10.83239420775929</v>
       </c>
       <c r="M4">
-        <v>14.00396703252121</v>
+        <v>20.57115348027778</v>
       </c>
       <c r="N4">
-        <v>15.95155084804601</v>
+        <v>22.96992686155001</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.17025229492725</v>
+        <v>26.36935393892921</v>
       </c>
       <c r="C5">
-        <v>15.04439011500424</v>
+        <v>9.866736563555282</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.528811068018994</v>
+        <v>9.397921180184756</v>
       </c>
       <c r="F5">
-        <v>38.54009024242438</v>
+        <v>50.82171097140979</v>
       </c>
       <c r="G5">
-        <v>2.139849825598103</v>
+        <v>3.776085592631694</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.733460067257272</v>
+        <v>10.71316562951734</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.713814759319657</v>
+        <v>10.83761989845751</v>
       </c>
       <c r="M5">
-        <v>13.86332854260075</v>
+        <v>20.56567587304203</v>
       </c>
       <c r="N5">
-        <v>15.99873659707921</v>
+        <v>22.9834915746032</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.10000475894629</v>
+        <v>26.35735885238991</v>
       </c>
       <c r="C6">
-        <v>14.98618321324927</v>
+        <v>9.84543330490251</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.516414576377675</v>
+        <v>9.394870142403978</v>
       </c>
       <c r="F6">
-        <v>38.48851947318703</v>
+        <v>50.8181144146873</v>
       </c>
       <c r="G6">
-        <v>2.140428015609861</v>
+        <v>3.776295739328903</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.737454886204223</v>
+        <v>10.7143469297319</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.7126227139916</v>
+        <v>10.83850576477886</v>
       </c>
       <c r="M6">
-        <v>13.8400072302231</v>
+        <v>20.56483442165665</v>
       </c>
       <c r="N6">
-        <v>16.00664477408176</v>
+        <v>22.98577352809889</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.58549553659219</v>
+        <v>26.44122922899375</v>
       </c>
       <c r="C7">
-        <v>15.38687306610884</v>
+        <v>9.99266451391061</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.602232523710757</v>
+        <v>9.415953611924294</v>
       </c>
       <c r="F7">
-        <v>38.84817184572389</v>
+        <v>50.84409278966512</v>
       </c>
       <c r="G7">
-        <v>2.136431043605709</v>
+        <v>3.774850118044952</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.709857314342102</v>
+        <v>10.70622274146708</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.721085036941528</v>
+        <v>10.83246346724138</v>
       </c>
       <c r="M7">
-        <v>14.00206831213426</v>
+        <v>20.57107504389581</v>
       </c>
       <c r="N7">
-        <v>15.95218229395366</v>
+        <v>22.97010781925922</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.67359753065305</v>
+        <v>26.82589511325336</v>
       </c>
       <c r="C8">
-        <v>17.07406107325667</v>
+        <v>10.62509581743439</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.97558267464591</v>
+        <v>9.506650253976288</v>
       </c>
       <c r="F8">
-        <v>40.47634475004757</v>
+        <v>50.98377971199214</v>
       </c>
       <c r="G8">
-        <v>2.119169657963193</v>
+        <v>3.768792199911168</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.591257334095826</v>
+        <v>10.67223326543246</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.763120213865224</v>
+        <v>10.80843348701824</v>
       </c>
       <c r="M8">
-        <v>14.72080086799546</v>
+        <v>20.60848821627461</v>
       </c>
       <c r="N8">
-        <v>15.72272640815782</v>
+        <v>22.90527499223661</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.5613415225368</v>
+        <v>27.62693182381649</v>
       </c>
       <c r="C9">
-        <v>20.10726780753144</v>
+        <v>11.79098467985171</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.692352920081811</v>
+        <v>9.675981763594885</v>
       </c>
       <c r="F9">
-        <v>43.81182981882057</v>
+        <v>51.34706404542688</v>
       </c>
       <c r="G9">
-        <v>2.086380423492432</v>
+        <v>3.758057283711274</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.36962737631373</v>
+        <v>10.61223760218894</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.862782276689196</v>
+        <v>10.77073694219101</v>
       </c>
       <c r="M9">
-        <v>16.13562189080492</v>
+        <v>20.7170536296182</v>
       </c>
       <c r="N9">
-        <v>15.31492590456133</v>
+        <v>22.79360237746328</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.32855357707811</v>
+        <v>28.23863797241576</v>
       </c>
       <c r="C10">
-        <v>22.18532188396271</v>
+        <v>12.5935457802159</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.214900638535502</v>
+        <v>9.795101402278695</v>
       </c>
       <c r="F10">
-        <v>46.35023698887716</v>
+        <v>51.66762748690701</v>
       </c>
       <c r="G10">
-        <v>2.062612506568277</v>
+        <v>3.750858548742052</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.213101214271437</v>
+        <v>10.57218852038644</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.946919750559946</v>
+        <v>10.74875304901649</v>
       </c>
       <c r="M10">
-        <v>17.17455967393182</v>
+        <v>20.81794478504025</v>
       </c>
       <c r="N10">
-        <v>15.04475209396027</v>
+        <v>22.72100407989075</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.63496624691133</v>
+        <v>28.52079796867522</v>
       </c>
       <c r="C11">
-        <v>23.10261958226268</v>
+        <v>12.9455003681062</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.453363477207571</v>
+        <v>9.848124927152341</v>
       </c>
       <c r="F11">
-        <v>47.52590806502021</v>
+        <v>51.82488190136468</v>
       </c>
       <c r="G11">
-        <v>2.051784017158753</v>
+        <v>3.74773103992043</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.143221229201167</v>
+        <v>10.55483814706706</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.987680187669018</v>
+        <v>10.7399847408086</v>
       </c>
       <c r="M11">
-        <v>17.64702349453906</v>
+        <v>20.86834234086541</v>
       </c>
       <c r="N11">
-        <v>14.9293180589632</v>
+        <v>22.69003356602368</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.12471241586584</v>
+        <v>28.62810700247421</v>
       </c>
       <c r="C12">
-        <v>23.446400343876</v>
+        <v>13.07679296208607</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.543945891680091</v>
+        <v>9.868034344039726</v>
       </c>
       <c r="F12">
-        <v>47.97439927452103</v>
+        <v>51.88604961903773</v>
       </c>
       <c r="G12">
-        <v>2.047672705309166</v>
+        <v>3.746567746492909</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.116950948530636</v>
+        <v>10.54839242431503</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.003484317010717</v>
+        <v>10.73684097168885</v>
       </c>
       <c r="M12">
-        <v>17.82596120872463</v>
+        <v>20.88806501059467</v>
       </c>
       <c r="N12">
-        <v>14.88679535836854</v>
+        <v>22.67860184372635</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.01944951049177</v>
+        <v>28.60497713176963</v>
       </c>
       <c r="C13">
-        <v>23.37251231192366</v>
+        <v>13.04860640500234</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.524421652412276</v>
+        <v>9.863754061906731</v>
       </c>
       <c r="F13">
-        <v>47.87765651828148</v>
+        <v>51.8728044733043</v>
       </c>
       <c r="G13">
-        <v>2.04855877921485</v>
+        <v>3.746817349709152</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.122600128272682</v>
+        <v>10.54977509492684</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.000063988961591</v>
+        <v>10.73751019402155</v>
       </c>
       <c r="M13">
-        <v>17.78742133529874</v>
+        <v>20.88378915030578</v>
       </c>
       <c r="N13">
-        <v>14.89589838016555</v>
+        <v>22.68105068792352</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.67535456926458</v>
+        <v>28.52961766656733</v>
       </c>
       <c r="C14">
-        <v>23.13097155571024</v>
+        <v>12.95634216731745</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.460808973733975</v>
+        <v>9.849766293890017</v>
       </c>
       <c r="F14">
-        <v>47.56273771327491</v>
+        <v>51.82988191084718</v>
       </c>
       <c r="G14">
-        <v>2.051446046673953</v>
+        <v>3.747634914504901</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.141056091713144</v>
+        <v>10.55430536065355</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.988972931093861</v>
+        <v>10.73972256520535</v>
       </c>
       <c r="M14">
-        <v>17.6617438415424</v>
+        <v>20.86995220131635</v>
       </c>
       <c r="N14">
-        <v>14.92579510288484</v>
+        <v>22.68908713239769</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.46395477121678</v>
+        <v>28.48351496455659</v>
       </c>
       <c r="C15">
-        <v>22.98256917781062</v>
+        <v>12.89956656275704</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.421886842214942</v>
+        <v>9.841176257878471</v>
       </c>
       <c r="F15">
-        <v>47.37027977531191</v>
+        <v>51.8038006577738</v>
       </c>
       <c r="G15">
-        <v>2.05321290153214</v>
+        <v>3.748138430477678</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.152385984623127</v>
+        <v>10.55709648082945</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.98222778570275</v>
+        <v>10.74110068681137</v>
       </c>
       <c r="M15">
-        <v>17.58476836885523</v>
+        <v>20.86155949925636</v>
       </c>
       <c r="N15">
-        <v>14.94426646401676</v>
+        <v>22.6940482728378</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.24245567914323</v>
+        <v>28.22026803571573</v>
       </c>
       <c r="C16">
-        <v>22.12484734726579</v>
+        <v>12.57027183564453</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.1993456829859</v>
+        <v>9.791612586091759</v>
       </c>
       <c r="F16">
-        <v>46.27384648748302</v>
+        <v>51.65757847338248</v>
       </c>
       <c r="G16">
-        <v>2.063319152487766</v>
+        <v>3.751065889037473</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.217694706499923</v>
+        <v>10.5733398471923</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.94430691364504</v>
+        <v>10.74935082400083</v>
       </c>
       <c r="M16">
-        <v>17.14368298590233</v>
+        <v>20.81474101022304</v>
       </c>
       <c r="N16">
-        <v>15.05245564896492</v>
+        <v>22.72306947956231</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.50730606339459</v>
+        <v>28.0597011400902</v>
       </c>
       <c r="C17">
-        <v>21.59178494788096</v>
+        <v>12.36482261072143</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.063128959351138</v>
+        <v>9.760907183137066</v>
       </c>
       <c r="F17">
-        <v>45.60674311723235</v>
+        <v>51.57078637283094</v>
       </c>
       <c r="G17">
-        <v>2.069509215173428</v>
+        <v>3.752899396049463</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.258098423711036</v>
+        <v>10.58352672725649</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.921687836385767</v>
+        <v>10.75472720716787</v>
       </c>
       <c r="M17">
-        <v>16.87307140933994</v>
+        <v>20.7871661408311</v>
       </c>
       <c r="N17">
-        <v>15.12081457774226</v>
+        <v>22.74139979626398</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.10012617631637</v>
+        <v>27.96771950425046</v>
       </c>
       <c r="C18">
-        <v>21.28251364471161</v>
+        <v>12.24542205593373</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.984839226009329</v>
+        <v>9.74313674630652</v>
       </c>
       <c r="F18">
-        <v>45.22498997806175</v>
+        <v>51.52194318864887</v>
       </c>
       <c r="G18">
-        <v>2.073068613339121</v>
+        <v>3.753967847626001</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.281461966045583</v>
+        <v>10.58946768650555</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.908911100346204</v>
+        <v>10.75793558476426</v>
       </c>
       <c r="M18">
-        <v>16.71740265174942</v>
+        <v>20.77173012319677</v>
       </c>
       <c r="N18">
-        <v>15.16082773434318</v>
+        <v>22.7521362772851</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.96184020499533</v>
+        <v>27.93664303660755</v>
       </c>
       <c r="C19">
-        <v>21.17732888352693</v>
+        <v>12.20478674315353</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.95833701938727</v>
+        <v>9.737101235533226</v>
       </c>
       <c r="F19">
-        <v>45.09606281547796</v>
+        <v>51.50559146466514</v>
       </c>
       <c r="G19">
-        <v>2.074273835633468</v>
+        <v>3.754331993048679</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.289393849881408</v>
+        <v>10.59149324223611</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.904624850244189</v>
+        <v>10.75904183167842</v>
       </c>
       <c r="M19">
-        <v>16.66469172406343</v>
+        <v>20.76657689415454</v>
       </c>
       <c r="N19">
-        <v>15.17449169339833</v>
+        <v>22.75580465674192</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.58246724774942</v>
+        <v>28.07675595460184</v>
       </c>
       <c r="C20">
-        <v>21.64880343176491</v>
+        <v>12.38682124340328</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.077622264998547</v>
+        <v>9.764187173054101</v>
       </c>
       <c r="F20">
-        <v>45.6775542657359</v>
+        <v>51.5799142094934</v>
       </c>
       <c r="G20">
-        <v>2.068850429049536</v>
+        <v>3.752702781987336</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.253784508487126</v>
+        <v>10.58243385978595</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.92407146900725</v>
+        <v>10.75414287825698</v>
       </c>
       <c r="M20">
-        <v>16.90188035933491</v>
+        <v>20.7900576809278</v>
       </c>
       <c r="N20">
-        <v>15.1134649673638</v>
+        <v>22.73942848527618</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.77655431375352</v>
+        <v>28.55174083361924</v>
       </c>
       <c r="C21">
-        <v>23.20201115930367</v>
+        <v>12.98349697292226</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.479484344980971</v>
+        <v>9.853879454571334</v>
       </c>
       <c r="F21">
-        <v>47.65514484703961</v>
+        <v>51.84244557968965</v>
       </c>
       <c r="G21">
-        <v>2.050598353332554</v>
+        <v>3.74739420641677</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.135629892156667</v>
+        <v>10.55297133600337</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.992220522651768</v>
+        <v>10.73906795015977</v>
       </c>
       <c r="M21">
-        <v>17.69865704203357</v>
+        <v>20.87399920464363</v>
       </c>
       <c r="N21">
-        <v>14.91698038637094</v>
+        <v>22.68671859129842</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.19334789979736</v>
+        <v>28.86481389651867</v>
       </c>
       <c r="C22">
-        <v>24.1965176639577</v>
+        <v>13.36185492640488</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.743875499481325</v>
+        <v>9.911510023418794</v>
       </c>
       <c r="F22">
-        <v>48.96701765982692</v>
+        <v>52.02344798117482</v>
       </c>
       <c r="G22">
-        <v>2.038601676728217</v>
+        <v>3.744047235366625</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.059530699300835</v>
+        <v>10.53444132369633</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.038918334279765</v>
+        <v>10.73024468020184</v>
       </c>
       <c r="M22">
-        <v>18.21960569178206</v>
+        <v>20.93257500575739</v>
       </c>
       <c r="N22">
-        <v>14.79557202858178</v>
+        <v>22.65399608286926</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.43962805384664</v>
+        <v>28.69751139848176</v>
       </c>
       <c r="C23">
-        <v>23.667448549911</v>
+        <v>13.16100785990781</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.602537262789529</v>
+        <v>9.880842596680592</v>
       </c>
       <c r="F23">
-        <v>48.26494434632503</v>
+        <v>51.92599013285001</v>
       </c>
       <c r="G23">
-        <v>2.04501389930099</v>
+        <v>3.745822416959715</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.10004201657093</v>
+        <v>10.54426487484107</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.013792778498817</v>
+        <v>10.73485986705052</v>
       </c>
       <c r="M23">
-        <v>17.9415177484757</v>
+        <v>20.90097528673112</v>
       </c>
       <c r="N23">
-        <v>14.85968441149244</v>
+        <v>22.67130250453974</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.54849498219572</v>
+        <v>28.06904443632781</v>
       </c>
       <c r="C24">
-        <v>21.62303415010606</v>
+        <v>12.37687965677591</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.07106978215592</v>
+        <v>9.76270465542239</v>
       </c>
       <c r="F24">
-        <v>45.64553504091628</v>
+        <v>51.57578422739593</v>
       </c>
       <c r="G24">
-        <v>2.069148263617889</v>
+        <v>3.752791626515532</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.255734409422817</v>
+        <v>10.58292768229817</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.922993121619028</v>
+        <v>10.7544066875648</v>
       </c>
       <c r="M24">
-        <v>16.88885611809842</v>
+        <v>20.78874911566338</v>
       </c>
       <c r="N24">
-        <v>15.11678551480683</v>
+        <v>22.74031909786826</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.53220036794819</v>
+        <v>27.40576869450791</v>
       </c>
       <c r="C25">
-        <v>19.31452125078672</v>
+        <v>11.48452094539608</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.499622308599058</v>
+        <v>9.631095175337485</v>
       </c>
       <c r="F25">
-        <v>42.89437904950825</v>
+        <v>51.23929303834558</v>
       </c>
       <c r="G25">
-        <v>2.095168195141957</v>
+        <v>3.760839814373407</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.428455492246887</v>
+        <v>10.62775830454165</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.833937266366081</v>
+        <v>10.7799292652223</v>
       </c>
       <c r="M25">
-        <v>15.75281711436024</v>
+        <v>20.68394610537724</v>
       </c>
       <c r="N25">
-        <v>15.4203913780131</v>
+        <v>22.82215524916465</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,56 +415,62 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>30.27884324296193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>28.1630198432674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>26.79314218379243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>26.79314218379239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>26.21694803853472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>26.12018204701068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>26.78544435617555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -472,7 +478,7 @@
         <v>29.56389055882486</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -480,7 +486,7 @@
         <v>34.4587799414611</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -488,15 +494,15 @@
         <v>37.72874519847221</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="F11">
-        <v>39.14805722232858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>39.14805722232859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -504,7 +510,7 @@
         <v>39.67592721363783</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -512,28 +518,28 @@
         <v>39.56266403258221</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>39.19167637503955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.96319309123412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>38.9631930912341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.63463543028806</v>
+        <v>37.6346354302881</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -541,7 +547,7 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <v>36.80228778268395</v>
+        <v>36.8022877826839</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -549,7 +555,7 @@
         <v>16</v>
       </c>
       <c r="F18">
-        <v>36.31710943239628</v>
+        <v>36.31710943239624</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -557,7 +563,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150068</v>
+        <v>36.15172494150058</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -565,7 +571,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -573,7 +579,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329765</v>
+        <v>39.30090300329764</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -581,7 +587,7 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>40.81974568026781</v>
+        <v>40.81974568026789</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -589,7 +595,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.01414225038425</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -597,7 +603,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575435</v>
+        <v>36.85121910575425</v>
       </c>
     </row>
     <row r="25" spans="1:6">

--- a/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
@@ -426,192 +426,1272 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>13.81470679772932</v>
+      </c>
+      <c r="C2">
+        <v>6.273088974467111</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>8.683654072159658</v>
+      </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>31.14291500275539</v>
+      </c>
+      <c r="G2">
+        <v>34.89652315838533</v>
+      </c>
+      <c r="H2">
+        <v>3.304324205260389</v>
+      </c>
+      <c r="I2">
+        <v>4.143397687192523</v>
+      </c>
+      <c r="J2">
+        <v>12.1168739893437</v>
+      </c>
+      <c r="K2">
+        <v>20.0501230498125</v>
+      </c>
+      <c r="L2">
+        <v>6.010241011424928</v>
+      </c>
+      <c r="M2">
+        <v>11.13225841898718</v>
+      </c>
+      <c r="N2">
+        <v>7.882988729232443</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>12.94424372320193</v>
+      </c>
+      <c r="C3">
+        <v>6.004866714763506</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>8.349980803628124</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
+        <v>30.32790070735171</v>
+      </c>
+      <c r="G3">
+        <v>34.33792689841114</v>
+      </c>
+      <c r="H3">
+        <v>3.539092299601804</v>
+      </c>
+      <c r="I3">
+        <v>4.327454372920061</v>
+      </c>
+      <c r="J3">
+        <v>12.0921529448512</v>
+      </c>
+      <c r="K3">
+        <v>19.96592069537555</v>
+      </c>
+      <c r="L3">
+        <v>5.959030114145958</v>
+      </c>
+      <c r="M3">
+        <v>10.46461696185442</v>
+      </c>
+      <c r="N3">
+        <v>7.561388936326972</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>12.37946933265976</v>
+      </c>
+      <c r="C4">
+        <v>5.83556782906514</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>8.138344201082221</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
+        <v>29.82138135951453</v>
+      </c>
+      <c r="G4">
+        <v>33.99681525883037</v>
+      </c>
+      <c r="H4">
+        <v>3.688484812317187</v>
+      </c>
+      <c r="I4">
+        <v>4.444981215552995</v>
+      </c>
+      <c r="J4">
+        <v>12.07895576586425</v>
+      </c>
+      <c r="K4">
+        <v>19.91572793911599</v>
+      </c>
+      <c r="L4">
+        <v>5.926178013885337</v>
+      </c>
+      <c r="M4">
+        <v>10.03253824722253</v>
+      </c>
+      <c r="N4">
+        <v>7.358478872945756</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>12.14030217150502</v>
+      </c>
+      <c r="C5">
+        <v>5.768760712441529</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>8.051384367355642</v>
+      </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>29.60036079099175</v>
+      </c>
+      <c r="G5">
+        <v>33.83235799716316</v>
+      </c>
+      <c r="H5">
+        <v>3.751073551883629</v>
+      </c>
+      <c r="I5">
+        <v>4.496422214273817</v>
+      </c>
+      <c r="J5">
+        <v>12.0692788644508</v>
+      </c>
+      <c r="K5">
+        <v>19.88508803729331</v>
+      </c>
+      <c r="L5">
+        <v>5.912411675519324</v>
+      </c>
+      <c r="M5">
+        <v>9.852044259411317</v>
+      </c>
+      <c r="N5">
+        <v>7.277581429017027</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>12.09836091139105</v>
+      </c>
+      <c r="C6">
+        <v>5.76169471226923</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8.037964923947621</v>
+      </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>29.54729115498491</v>
+      </c>
+      <c r="G6">
+        <v>33.77329636350201</v>
+      </c>
+      <c r="H6">
+        <v>3.762001025621152</v>
+      </c>
+      <c r="I6">
+        <v>4.508088288300878</v>
+      </c>
+      <c r="J6">
+        <v>12.06185281724168</v>
+      </c>
+      <c r="K6">
+        <v>19.86712221961168</v>
+      </c>
+      <c r="L6">
+        <v>5.910083164331935</v>
+      </c>
+      <c r="M6">
+        <v>9.823109408461143</v>
+      </c>
+      <c r="N6">
+        <v>7.267835101796419</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>12.37152796463091</v>
+      </c>
+      <c r="C7">
+        <v>5.845713166872761</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>8.140183275649637</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617555</v>
+        <v>29.77432532336717</v>
+      </c>
+      <c r="G7">
+        <v>33.90829679205547</v>
+      </c>
+      <c r="H7">
+        <v>3.690541501499569</v>
+      </c>
+      <c r="I7">
+        <v>4.453762006703883</v>
+      </c>
+      <c r="J7">
+        <v>12.06290100048781</v>
+      </c>
+      <c r="K7">
+        <v>19.88018709967239</v>
+      </c>
+      <c r="L7">
+        <v>5.925971545631985</v>
+      </c>
+      <c r="M7">
+        <v>10.0337917125913</v>
+      </c>
+      <c r="N7">
+        <v>7.367512630362993</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>13.51500772833109</v>
+      </c>
+      <c r="C8">
+        <v>6.19556230654494</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>8.573832117212538</v>
+      </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>30.80702878152296</v>
+      </c>
+      <c r="G8">
+        <v>34.5920501561307</v>
+      </c>
+      <c r="H8">
+        <v>3.385720943500705</v>
+      </c>
+      <c r="I8">
+        <v>4.216200016475983</v>
+      </c>
+      <c r="J8">
+        <v>12.0871158641606</v>
+      </c>
+      <c r="K8">
+        <v>19.97487151326412</v>
+      </c>
+      <c r="L8">
+        <v>5.993008455915131</v>
+      </c>
+      <c r="M8">
+        <v>10.91119740525033</v>
+      </c>
+      <c r="N8">
+        <v>7.785997945319036</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>15.52903141525714</v>
+      </c>
+      <c r="C9">
+        <v>6.82642583563367</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>9.36288972450793</v>
+      </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>32.84868813004145</v>
+      </c>
+      <c r="G9">
+        <v>36.09389567496794</v>
+      </c>
+      <c r="H9">
+        <v>2.826632640381483</v>
+      </c>
+      <c r="I9">
+        <v>3.772227801510335</v>
+      </c>
+      <c r="J9">
+        <v>12.17893732733964</v>
+      </c>
+      <c r="K9">
+        <v>20.23468618017258</v>
+      </c>
+      <c r="L9">
+        <v>6.113140062332431</v>
+      </c>
+      <c r="M9">
+        <v>12.44939158533907</v>
+      </c>
+      <c r="N9">
+        <v>8.543342755702064</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>16.89214497410763</v>
+      </c>
+      <c r="C10">
+        <v>7.295178822093932</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>9.792876415136515</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>34.01985913796145</v>
+      </c>
+      <c r="G10">
+        <v>36.83261863949721</v>
+      </c>
+      <c r="H10">
+        <v>2.469029105382822</v>
+      </c>
+      <c r="I10">
+        <v>3.477706674029982</v>
+      </c>
+      <c r="J10">
+        <v>12.18648279488889</v>
+      </c>
+      <c r="K10">
+        <v>20.28443480787508</v>
+      </c>
+      <c r="L10">
+        <v>6.200998702254325</v>
+      </c>
+      <c r="M10">
+        <v>13.4787489038218</v>
+      </c>
+      <c r="N10">
+        <v>8.983444504628881</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>17.37633219015504</v>
+      </c>
+      <c r="C11">
+        <v>7.723460760577925</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>9.032077735559971</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>32.23454233752736</v>
+      </c>
+      <c r="G11">
+        <v>34.23426334105386</v>
+      </c>
+      <c r="H11">
+        <v>3.252716581524932</v>
+      </c>
+      <c r="I11">
+        <v>3.414195631090003</v>
+      </c>
+      <c r="J11">
+        <v>11.62981584009906</v>
+      </c>
+      <c r="K11">
+        <v>19.1334588836758</v>
+      </c>
+      <c r="L11">
+        <v>6.333781045339581</v>
+      </c>
+      <c r="M11">
+        <v>13.97789587306003</v>
+      </c>
+      <c r="N11">
+        <v>8.432124245219017</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>17.51466962065473</v>
+      </c>
+      <c r="C12">
+        <v>7.986993274530565</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>8.33107992223378</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>30.52728555846299</v>
+      </c>
+      <c r="G12">
+        <v>32.00452614174497</v>
+      </c>
+      <c r="H12">
+        <v>4.496625555175038</v>
+      </c>
+      <c r="I12">
+        <v>3.402779255269729</v>
+      </c>
+      <c r="J12">
+        <v>11.18844304490801</v>
+      </c>
+      <c r="K12">
+        <v>18.22884948579167</v>
+      </c>
+      <c r="L12">
+        <v>6.476501747079447</v>
+      </c>
+      <c r="M12">
+        <v>14.18732296910071</v>
+      </c>
+      <c r="N12">
+        <v>7.863208898657202</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>17.39403436965203</v>
+      </c>
+      <c r="C13">
+        <v>8.158020335527869</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>7.635754833876534</v>
+      </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>28.69273103458687</v>
+      </c>
+      <c r="G13">
+        <v>29.78586569781211</v>
+      </c>
+      <c r="H13">
+        <v>5.853232877581611</v>
+      </c>
+      <c r="I13">
+        <v>3.444293503231567</v>
+      </c>
+      <c r="J13">
+        <v>10.78673828654253</v>
+      </c>
+      <c r="K13">
+        <v>17.41259518308053</v>
+      </c>
+      <c r="L13">
+        <v>6.630720907194336</v>
+      </c>
+      <c r="M13">
+        <v>14.19726917887855</v>
+      </c>
+      <c r="N13">
+        <v>7.249870735289562</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>17.18966574963942</v>
+      </c>
+      <c r="C14">
+        <v>8.242282612080306</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>7.163813370286489</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>27.33623736118827</v>
+      </c>
+      <c r="G14">
+        <v>28.22765313707121</v>
+      </c>
+      <c r="H14">
+        <v>6.834795244213722</v>
+      </c>
+      <c r="I14">
+        <v>3.499728340794567</v>
+      </c>
+      <c r="J14">
+        <v>10.52427183560002</v>
+      </c>
+      <c r="K14">
+        <v>16.88623480527073</v>
+      </c>
+      <c r="L14">
+        <v>6.748290287883603</v>
+      </c>
+      <c r="M14">
+        <v>14.11528091674816</v>
+      </c>
+      <c r="N14">
+        <v>6.801426880752237</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>17.08196665227194</v>
+      </c>
+      <c r="C15">
+        <v>8.246537595530652</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>7.046027561812044</v>
+      </c>
       <c r="F15">
-        <v>38.9631930912341</v>
+        <v>26.96611943912292</v>
+      </c>
+      <c r="G15">
+        <v>27.82630928321951</v>
+      </c>
+      <c r="H15">
+        <v>7.066940516828847</v>
+      </c>
+      <c r="I15">
+        <v>3.528977215803659</v>
+      </c>
+      <c r="J15">
+        <v>10.46386593480403</v>
+      </c>
+      <c r="K15">
+        <v>16.76530168354423</v>
+      </c>
+      <c r="L15">
+        <v>6.774252211790703</v>
+      </c>
+      <c r="M15">
+        <v>14.05327458940127</v>
+      </c>
+      <c r="N15">
+        <v>6.684863619413201</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>16.53974528424351</v>
+      </c>
+      <c r="C16">
+        <v>8.032992875396037</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>6.976598451251302</v>
+      </c>
       <c r="F16">
-        <v>37.6346354302881</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>26.7569230802615</v>
+      </c>
+      <c r="G16">
+        <v>27.87309291940043</v>
+      </c>
+      <c r="H16">
+        <v>6.899680845888638</v>
+      </c>
+      <c r="I16">
+        <v>3.651355478306578</v>
+      </c>
+      <c r="J16">
+        <v>10.53469273262589</v>
+      </c>
+      <c r="K16">
+        <v>16.8954796081411</v>
+      </c>
+      <c r="L16">
+        <v>6.701953171627414</v>
+      </c>
+      <c r="M16">
+        <v>13.63392327738584</v>
+      </c>
+      <c r="N16">
+        <v>6.600872091982358</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>16.22824414219862</v>
+      </c>
+      <c r="C17">
+        <v>7.819081113313054</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>7.171806698818266</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>27.32818152253711</v>
+      </c>
+      <c r="G17">
+        <v>28.73381183429375</v>
+      </c>
+      <c r="H17">
+        <v>6.226190494397615</v>
+      </c>
+      <c r="I17">
+        <v>3.716596961575083</v>
+      </c>
+      <c r="J17">
+        <v>10.72554406012043</v>
+      </c>
+      <c r="K17">
+        <v>17.26589867921106</v>
+      </c>
+      <c r="L17">
+        <v>6.580194858551186</v>
+      </c>
+      <c r="M17">
+        <v>13.3508421352308</v>
+      </c>
+      <c r="N17">
+        <v>6.779927135368848</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>16.09206981919829</v>
+      </c>
+      <c r="C18">
+        <v>7.576940038680418</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>7.65485030456209</v>
+      </c>
       <c r="F18">
-        <v>36.31710943239624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>28.67436211793622</v>
+      </c>
+      <c r="G18">
+        <v>30.47655276439155</v>
+      </c>
+      <c r="H18">
+        <v>5.085583885386946</v>
+      </c>
+      <c r="I18">
+        <v>3.728751438558923</v>
+      </c>
+      <c r="J18">
+        <v>11.05995048376775</v>
+      </c>
+      <c r="K18">
+        <v>17.93368320258318</v>
+      </c>
+      <c r="L18">
+        <v>6.420050306298883</v>
+      </c>
+      <c r="M18">
+        <v>13.15666294239048</v>
+      </c>
+      <c r="N18">
+        <v>7.207715515775637</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>16.1018362989877</v>
+      </c>
+      <c r="C19">
+        <v>7.363202157163778</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>8.38034490519598</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>30.48127976191071</v>
+      </c>
+      <c r="G19">
+        <v>32.70114298053043</v>
+      </c>
+      <c r="H19">
+        <v>3.795563313041175</v>
+      </c>
+      <c r="I19">
+        <v>3.711096801065151</v>
+      </c>
+      <c r="J19">
+        <v>11.47375686514092</v>
+      </c>
+      <c r="K19">
+        <v>18.77842681179987</v>
+      </c>
+      <c r="L19">
+        <v>6.278634023891644</v>
+      </c>
+      <c r="M19">
+        <v>13.05829266845236</v>
+      </c>
+      <c r="N19">
+        <v>7.82495556365595</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>16.53172940231996</v>
+      </c>
+      <c r="C20">
+        <v>7.2046297973793</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>9.684601613550402</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>33.58303739948725</v>
+      </c>
+      <c r="G20">
+        <v>36.37851135435064</v>
+      </c>
+      <c r="H20">
+        <v>2.56442099536972</v>
+      </c>
+      <c r="I20">
+        <v>3.581023840182932</v>
+      </c>
+      <c r="J20">
+        <v>12.13367663689076</v>
+      </c>
+      <c r="K20">
+        <v>20.16108115404521</v>
+      </c>
+      <c r="L20">
+        <v>6.179929383950075</v>
+      </c>
+      <c r="M20">
+        <v>13.22514544076307</v>
+      </c>
+      <c r="N20">
+        <v>8.891976002558485</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>17.54729848781543</v>
+      </c>
+      <c r="C21">
+        <v>7.514827577454887</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>10.17707655622656</v>
+      </c>
       <c r="F21">
-        <v>39.30090300329764</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>34.89895092120886</v>
+      </c>
+      <c r="G21">
+        <v>37.51240943220552</v>
+      </c>
+      <c r="H21">
+        <v>2.252464747981395</v>
+      </c>
+      <c r="I21">
+        <v>3.346681807236077</v>
+      </c>
+      <c r="J21">
+        <v>12.2514866773972</v>
+      </c>
+      <c r="K21">
+        <v>20.43068077322755</v>
+      </c>
+      <c r="L21">
+        <v>6.235795653731345</v>
+      </c>
+      <c r="M21">
+        <v>13.96975839393573</v>
+      </c>
+      <c r="N21">
+        <v>9.349891934880695</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>18.18097782697525</v>
+      </c>
+      <c r="C22">
+        <v>7.714039987728989</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>10.42990917621433</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>35.66004248562778</v>
+      </c>
+      <c r="G22">
+        <v>38.18183568771089</v>
+      </c>
+      <c r="H22">
+        <v>2.065147943239336</v>
+      </c>
+      <c r="I22">
+        <v>3.188871454939742</v>
+      </c>
+      <c r="J22">
+        <v>12.31785164744862</v>
+      </c>
+      <c r="K22">
+        <v>20.58335205136542</v>
+      </c>
+      <c r="L22">
+        <v>6.273715729496083</v>
+      </c>
+      <c r="M22">
+        <v>14.43645486810834</v>
+      </c>
+      <c r="N22">
+        <v>9.586759684490968</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>17.84999954002486</v>
+      </c>
+      <c r="C23">
+        <v>7.597313045407232</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>10.29281134110643</v>
+      </c>
       <c r="F23">
-        <v>40.01414225038425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>35.29873651929918</v>
+      </c>
+      <c r="G23">
+        <v>37.91450925660686</v>
+      </c>
+      <c r="H23">
+        <v>2.163626921324972</v>
+      </c>
+      <c r="I23">
+        <v>3.262008461372361</v>
+      </c>
+      <c r="J23">
+        <v>12.2999248909773</v>
+      </c>
+      <c r="K23">
+        <v>20.5405568731391</v>
+      </c>
+      <c r="L23">
+        <v>6.253066408778361</v>
+      </c>
+      <c r="M23">
+        <v>14.18590715372224</v>
+      </c>
+      <c r="N23">
+        <v>9.451442776888639</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>16.53107365262296</v>
+      </c>
+      <c r="C24">
+        <v>7.163983077637161</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>9.763084189239528</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>33.83998576177898</v>
+      </c>
+      <c r="G24">
+        <v>36.76338225767041</v>
+      </c>
+      <c r="H24">
+        <v>2.546029990904933</v>
+      </c>
+      <c r="I24">
+        <v>3.563351176295961</v>
+      </c>
+      <c r="J24">
+        <v>12.2093035232582</v>
+      </c>
+      <c r="K24">
+        <v>20.3221274175461</v>
+      </c>
+      <c r="L24">
+        <v>6.173376003144098</v>
+      </c>
+      <c r="M24">
+        <v>13.20282378278775</v>
+      </c>
+      <c r="N24">
+        <v>8.940177561570245</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>14.99860191167236</v>
+      </c>
+      <c r="C25">
+        <v>6.677729697626887</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>9.160623729552569</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>32.23100163312121</v>
+      </c>
+      <c r="G25">
+        <v>35.54000921213036</v>
+      </c>
+      <c r="H25">
+        <v>2.975600644197214</v>
+      </c>
+      <c r="I25">
+        <v>3.903298633610057</v>
+      </c>
+      <c r="J25">
+        <v>12.12433824686747</v>
+      </c>
+      <c r="K25">
+        <v>20.10154127798654</v>
+      </c>
+      <c r="L25">
+        <v>6.082280062489148</v>
+      </c>
+      <c r="M25">
+        <v>12.05787590522991</v>
+      </c>
+      <c r="N25">
+        <v>8.360043222512102</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.81470679772932</v>
+        <v>13.71530180717029</v>
       </c>
       <c r="C2">
-        <v>6.273088974467111</v>
+        <v>6.217452761155813</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.683654072159658</v>
+        <v>8.860293102150543</v>
       </c>
       <c r="F2">
-        <v>31.14291500275539</v>
+        <v>29.68221991719041</v>
       </c>
       <c r="G2">
-        <v>34.89652315838533</v>
+        <v>31.66024964517803</v>
       </c>
       <c r="H2">
-        <v>3.304324205260389</v>
+        <v>3.112814074191926</v>
       </c>
       <c r="I2">
-        <v>4.143397687192523</v>
+        <v>3.88260764754406</v>
       </c>
       <c r="J2">
-        <v>12.1168739893437</v>
+        <v>11.51454256496285</v>
       </c>
       <c r="K2">
-        <v>20.0501230498125</v>
+        <v>18.52342097090195</v>
       </c>
       <c r="L2">
-        <v>6.010241011424928</v>
+        <v>14.48098454076069</v>
       </c>
       <c r="M2">
-        <v>11.13225841898718</v>
+        <v>12.93968952137544</v>
       </c>
       <c r="N2">
-        <v>7.882988729232443</v>
+        <v>5.908787666570281</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.30564500722743</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.318133436668527</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.94424372320193</v>
+        <v>12.82323105381298</v>
       </c>
       <c r="C3">
-        <v>6.004866714763506</v>
+        <v>5.88609277378904</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.349980803628124</v>
+        <v>8.52731641611348</v>
       </c>
       <c r="F3">
-        <v>30.32790070735171</v>
+        <v>29.00581583633225</v>
       </c>
       <c r="G3">
-        <v>34.33792689841114</v>
+        <v>31.43827583506699</v>
       </c>
       <c r="H3">
-        <v>3.539092299601804</v>
+        <v>3.330163981951775</v>
       </c>
       <c r="I3">
-        <v>4.327454372920061</v>
+        <v>4.0435289047272</v>
       </c>
       <c r="J3">
-        <v>12.0921529448512</v>
+        <v>11.49385316988106</v>
       </c>
       <c r="K3">
-        <v>19.96592069537555</v>
+        <v>18.54558794373823</v>
       </c>
       <c r="L3">
-        <v>5.959030114145958</v>
+        <v>14.57408342421264</v>
       </c>
       <c r="M3">
-        <v>10.46461696185442</v>
+        <v>12.91125927392694</v>
       </c>
       <c r="N3">
-        <v>7.561388936326972</v>
+        <v>5.845018309455883</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.63265083129074</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.975772906863007</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.37946933265976</v>
+        <v>12.24161824967283</v>
       </c>
       <c r="C4">
-        <v>5.83556782906514</v>
+        <v>5.67614193252566</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.138344201082221</v>
+        <v>8.316396797344094</v>
       </c>
       <c r="F4">
-        <v>29.82138135951453</v>
+        <v>28.5859094853835</v>
       </c>
       <c r="G4">
-        <v>33.99681525883037</v>
+        <v>31.30889778530105</v>
       </c>
       <c r="H4">
-        <v>3.688484812317187</v>
+        <v>3.468560785043621</v>
       </c>
       <c r="I4">
-        <v>4.444981215552995</v>
+        <v>4.146588651257713</v>
       </c>
       <c r="J4">
-        <v>12.07895576586425</v>
+        <v>11.48107999260497</v>
       </c>
       <c r="K4">
-        <v>19.91572793911599</v>
+        <v>18.56005759652471</v>
       </c>
       <c r="L4">
-        <v>5.926178013885337</v>
+        <v>14.62906466511405</v>
       </c>
       <c r="M4">
-        <v>10.03253824722253</v>
+        <v>12.90914230717403</v>
       </c>
       <c r="N4">
-        <v>7.358478872945756</v>
+        <v>5.804645988740596</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.19723178041444</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.760099346184177</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.14030217150502</v>
+        <v>11.99454863850001</v>
       </c>
       <c r="C5">
-        <v>5.768760712441529</v>
+        <v>5.592913554844165</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.051384367355642</v>
+        <v>8.229744206256221</v>
       </c>
       <c r="F5">
-        <v>29.60036079099175</v>
+        <v>28.40168153034038</v>
       </c>
       <c r="G5">
-        <v>33.83235799716316</v>
+        <v>31.23477809920511</v>
       </c>
       <c r="H5">
-        <v>3.751073551883629</v>
+        <v>3.526558294682944</v>
       </c>
       <c r="I5">
-        <v>4.496422214273817</v>
+        <v>4.192447539092794</v>
       </c>
       <c r="J5">
-        <v>12.0692788644508</v>
+        <v>11.47151599325117</v>
       </c>
       <c r="K5">
-        <v>19.88508803729331</v>
+        <v>18.5570067786288</v>
       </c>
       <c r="L5">
-        <v>5.912411675519324</v>
+        <v>14.64261062162371</v>
       </c>
       <c r="M5">
-        <v>9.852044259411317</v>
+        <v>12.90659493755311</v>
       </c>
       <c r="N5">
-        <v>7.277581429017027</v>
+        <v>5.788068445502023</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.01528985041009</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.673737390764103</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.09836091139105</v>
+        <v>11.95115895931389</v>
       </c>
       <c r="C6">
-        <v>5.76169471226923</v>
+        <v>5.583816724201617</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.037964923947621</v>
+        <v>8.216299895085672</v>
       </c>
       <c r="F6">
-        <v>29.54729115498491</v>
+        <v>28.3561993918063</v>
       </c>
       <c r="G6">
-        <v>33.77329636350201</v>
+        <v>31.19440559647521</v>
       </c>
       <c r="H6">
-        <v>3.762001025621152</v>
+        <v>3.536679439607906</v>
       </c>
       <c r="I6">
-        <v>4.508088288300878</v>
+        <v>4.203687489524572</v>
       </c>
       <c r="J6">
-        <v>12.06185281724168</v>
+        <v>11.46462529059271</v>
       </c>
       <c r="K6">
-        <v>19.86712221961168</v>
+        <v>18.54534368561132</v>
       </c>
       <c r="L6">
-        <v>5.910083164331935</v>
+        <v>14.63468815567296</v>
       </c>
       <c r="M6">
-        <v>9.823109408461143</v>
+        <v>12.89963907614724</v>
       </c>
       <c r="N6">
-        <v>7.267835101796419</v>
+        <v>5.785525371243113</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.986007303631206</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.662744119920224</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.37152796463091</v>
+        <v>12.23575313306077</v>
       </c>
       <c r="C7">
-        <v>5.845713166872761</v>
+        <v>5.679740591003785</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.140183275649637</v>
+        <v>8.325318195604408</v>
       </c>
       <c r="F7">
-        <v>29.77432532336717</v>
+        <v>28.5227349233865</v>
       </c>
       <c r="G7">
-        <v>33.90829679205547</v>
+        <v>31.27558576729571</v>
       </c>
       <c r="H7">
-        <v>3.690541501499569</v>
+        <v>3.471025156424295</v>
       </c>
       <c r="I7">
-        <v>4.453762006703883</v>
+        <v>4.157252881418202</v>
       </c>
       <c r="J7">
-        <v>12.06290100048781</v>
+        <v>11.4247385144605</v>
       </c>
       <c r="K7">
-        <v>19.88018709967239</v>
+        <v>18.51495358831017</v>
       </c>
       <c r="L7">
-        <v>5.925971545631985</v>
+        <v>14.58907548915388</v>
       </c>
       <c r="M7">
-        <v>10.0337917125913</v>
+        <v>12.88098054875325</v>
       </c>
       <c r="N7">
-        <v>7.367512630362993</v>
+        <v>5.805458051047798</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.19548500582424</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.771266055575982</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.51500772833109</v>
+        <v>13.41593319725566</v>
       </c>
       <c r="C8">
-        <v>6.19556230654494</v>
+        <v>6.094942247744416</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.573832117212538</v>
+        <v>8.773642693469517</v>
       </c>
       <c r="F8">
-        <v>30.80702878152296</v>
+        <v>29.33297844862746</v>
       </c>
       <c r="G8">
-        <v>34.5920501561307</v>
+        <v>31.63003758087577</v>
       </c>
       <c r="H8">
-        <v>3.385720943500705</v>
+        <v>3.189893517733362</v>
       </c>
       <c r="I8">
-        <v>4.216200016475983</v>
+        <v>3.951119726425341</v>
       </c>
       <c r="J8">
-        <v>12.0871158641606</v>
+        <v>11.35280606114556</v>
       </c>
       <c r="K8">
-        <v>19.97487151326412</v>
+        <v>18.44361544306694</v>
       </c>
       <c r="L8">
-        <v>5.993008455915131</v>
+        <v>14.44007485136228</v>
       </c>
       <c r="M8">
-        <v>10.91119740525033</v>
+        <v>12.86748993534711</v>
       </c>
       <c r="N8">
-        <v>7.785997945319036</v>
+        <v>5.889661396478093</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.0741254714518</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.222740832171631</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.52903141525714</v>
+        <v>15.46203262976399</v>
       </c>
       <c r="C9">
-        <v>6.82642583563367</v>
+        <v>6.865448685984794</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.36288972450793</v>
+        <v>9.566711060639474</v>
       </c>
       <c r="F9">
-        <v>32.84868813004145</v>
+        <v>31.02248110891868</v>
       </c>
       <c r="G9">
-        <v>36.09389567496794</v>
+        <v>32.35406574763127</v>
       </c>
       <c r="H9">
-        <v>2.826632640381483</v>
+        <v>2.673115556482387</v>
       </c>
       <c r="I9">
-        <v>3.772227801510335</v>
+        <v>3.562423323860112</v>
       </c>
       <c r="J9">
-        <v>12.17893732733964</v>
+        <v>11.38588283551111</v>
       </c>
       <c r="K9">
-        <v>20.23468618017258</v>
+        <v>18.41782312892308</v>
       </c>
       <c r="L9">
-        <v>6.113140062332431</v>
+        <v>14.22195160457527</v>
       </c>
       <c r="M9">
-        <v>12.44939158533907</v>
+        <v>13.03323541139176</v>
       </c>
       <c r="N9">
-        <v>8.543342755702064</v>
+        <v>6.04216853828904</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.62407169402243</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.033782098734298</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.89214497410763</v>
+        <v>16.80428331709526</v>
       </c>
       <c r="C10">
-        <v>7.295178822093932</v>
+        <v>7.385992660547182</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.792876415136515</v>
+        <v>10.03383684028297</v>
       </c>
       <c r="F10">
-        <v>34.01985913796145</v>
+        <v>31.87413456973277</v>
       </c>
       <c r="G10">
-        <v>36.83261863949721</v>
+        <v>32.87679301067718</v>
       </c>
       <c r="H10">
-        <v>2.469029105382822</v>
+        <v>2.347529767299397</v>
       </c>
       <c r="I10">
-        <v>3.477706674029982</v>
+        <v>3.310297099950703</v>
       </c>
       <c r="J10">
-        <v>12.18648279488889</v>
+        <v>11.13019059596596</v>
       </c>
       <c r="K10">
-        <v>20.28443480787508</v>
+        <v>18.21015763412296</v>
       </c>
       <c r="L10">
-        <v>6.200998702254325</v>
+        <v>13.90758941463163</v>
       </c>
       <c r="M10">
-        <v>13.4787489038218</v>
+        <v>13.07585984352752</v>
       </c>
       <c r="N10">
-        <v>8.983444504628881</v>
+        <v>6.164777464725669</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.64694968676089</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.520513871717675</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.37633219015504</v>
+        <v>17.32050126448481</v>
       </c>
       <c r="C11">
-        <v>7.723460760577925</v>
+        <v>7.745454829187097</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.032077735559971</v>
+        <v>9.322779835691643</v>
       </c>
       <c r="F11">
-        <v>32.23454233752736</v>
+        <v>30.02305509244395</v>
       </c>
       <c r="G11">
-        <v>34.23426334105386</v>
+        <v>31.1298939602838</v>
       </c>
       <c r="H11">
-        <v>3.252716581524932</v>
+        <v>3.169920221511015</v>
       </c>
       <c r="I11">
-        <v>3.414195631090003</v>
+        <v>3.265028883664995</v>
       </c>
       <c r="J11">
-        <v>11.62981584009906</v>
+        <v>10.27380609135262</v>
       </c>
       <c r="K11">
-        <v>19.1334588836758</v>
+        <v>17.10340850083144</v>
       </c>
       <c r="L11">
-        <v>6.333781045339581</v>
+        <v>13.03874462393924</v>
       </c>
       <c r="M11">
-        <v>13.97789587306003</v>
+        <v>12.29496567305353</v>
       </c>
       <c r="N11">
-        <v>8.432124245219017</v>
+        <v>6.374304596525963</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.10703132889007</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.961561266878588</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.51466962065473</v>
+        <v>17.48362008890256</v>
       </c>
       <c r="C12">
-        <v>7.986993274530565</v>
+        <v>7.952584259592889</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.33107992223378</v>
+        <v>8.626482039570044</v>
       </c>
       <c r="F12">
-        <v>30.52728555846299</v>
+        <v>28.3897859413584</v>
       </c>
       <c r="G12">
-        <v>32.00452614174497</v>
+        <v>29.47765379109097</v>
       </c>
       <c r="H12">
-        <v>4.496625555175038</v>
+        <v>4.437209040774008</v>
       </c>
       <c r="I12">
-        <v>3.402779255269729</v>
+        <v>3.256481812497303</v>
       </c>
       <c r="J12">
-        <v>11.18844304490801</v>
+        <v>9.813425607492279</v>
       </c>
       <c r="K12">
-        <v>18.22884948579167</v>
+        <v>16.34325524447194</v>
       </c>
       <c r="L12">
-        <v>6.476501747079447</v>
+        <v>12.48491103037606</v>
       </c>
       <c r="M12">
-        <v>14.18732296910071</v>
+        <v>11.70919882665452</v>
       </c>
       <c r="N12">
-        <v>7.863208898657202</v>
+        <v>6.565529288823514</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.29178058677612</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.366888683906106</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.39403436965203</v>
+        <v>17.38014419383305</v>
       </c>
       <c r="C13">
-        <v>8.158020335527869</v>
+        <v>8.096161200991128</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.635754833876534</v>
+        <v>7.89174914698652</v>
       </c>
       <c r="F13">
-        <v>28.69273103458687</v>
+        <v>26.78967775238638</v>
       </c>
       <c r="G13">
-        <v>29.78586569781211</v>
+        <v>27.57296385079878</v>
       </c>
       <c r="H13">
-        <v>5.853232877581611</v>
+        <v>5.803813586654828</v>
       </c>
       <c r="I13">
-        <v>3.444293503231567</v>
+        <v>3.29076137545333</v>
       </c>
       <c r="J13">
-        <v>10.78673828654253</v>
+        <v>9.619134650167076</v>
       </c>
       <c r="K13">
-        <v>17.41259518308053</v>
+        <v>15.78086366926305</v>
       </c>
       <c r="L13">
-        <v>6.630720907194336</v>
+        <v>12.10129478720569</v>
       </c>
       <c r="M13">
-        <v>14.19726917887855</v>
+        <v>11.234764468997</v>
       </c>
       <c r="N13">
-        <v>7.249870735289562</v>
+        <v>6.739795354813855</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.29076433424543</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.70545560984224</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.18966574963942</v>
+        <v>17.18477681533762</v>
       </c>
       <c r="C14">
-        <v>8.242282612080306</v>
+        <v>8.174581398223479</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.163813370286489</v>
+        <v>7.376811025722831</v>
       </c>
       <c r="F14">
-        <v>27.33623736118827</v>
+        <v>25.66723945466049</v>
       </c>
       <c r="G14">
-        <v>28.22765313707121</v>
+        <v>26.13310024055511</v>
       </c>
       <c r="H14">
-        <v>6.834795244213722</v>
+        <v>6.788593789709835</v>
       </c>
       <c r="I14">
-        <v>3.499728340794567</v>
+        <v>3.337172849400102</v>
       </c>
       <c r="J14">
-        <v>10.52427183560002</v>
+        <v>9.575065755810018</v>
       </c>
       <c r="K14">
-        <v>16.88623480527073</v>
+        <v>15.46981870074698</v>
       </c>
       <c r="L14">
-        <v>6.748290287883603</v>
+        <v>11.89731627341198</v>
       </c>
       <c r="M14">
-        <v>14.11528091674816</v>
+        <v>10.95418411511807</v>
       </c>
       <c r="N14">
-        <v>6.801426880752237</v>
+        <v>6.855012942133744</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.20683276537298</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.213986460449069</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.08196665227194</v>
+        <v>17.07811501903812</v>
       </c>
       <c r="C15">
-        <v>8.246537595530652</v>
+        <v>8.184055885030027</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.046027561812044</v>
+        <v>7.243428065089436</v>
       </c>
       <c r="F15">
-        <v>26.96611943912292</v>
+        <v>25.38457953945713</v>
       </c>
       <c r="G15">
-        <v>27.82630928321951</v>
+        <v>25.72429467081239</v>
       </c>
       <c r="H15">
-        <v>7.066940516828847</v>
+        <v>7.020467989585093</v>
       </c>
       <c r="I15">
-        <v>3.528977215803659</v>
+        <v>3.362749923096099</v>
       </c>
       <c r="J15">
-        <v>10.46386593480403</v>
+        <v>9.599170181343817</v>
       </c>
       <c r="K15">
-        <v>16.76530168354423</v>
+        <v>15.41860167629676</v>
       </c>
       <c r="L15">
-        <v>6.774252211790703</v>
+        <v>11.86609562350411</v>
       </c>
       <c r="M15">
-        <v>14.05327458940127</v>
+        <v>10.90049930962739</v>
       </c>
       <c r="N15">
-        <v>6.684863619413201</v>
+        <v>6.874768948279073</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.1468792575203</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.083000955252057</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.53974528424351</v>
+        <v>16.52619139474985</v>
       </c>
       <c r="C16">
-        <v>8.032992875396037</v>
+        <v>8.024794526885008</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.976598451251302</v>
+        <v>7.131671386051275</v>
       </c>
       <c r="F16">
-        <v>26.7569230802615</v>
+        <v>25.42026637787628</v>
       </c>
       <c r="G16">
-        <v>27.87309291940043</v>
+        <v>25.47420875488038</v>
       </c>
       <c r="H16">
-        <v>6.899680845888638</v>
+        <v>6.843192437376912</v>
       </c>
       <c r="I16">
-        <v>3.651355478306578</v>
+        <v>3.465431598501841</v>
       </c>
       <c r="J16">
-        <v>10.53469273262589</v>
+        <v>9.94904276180033</v>
       </c>
       <c r="K16">
-        <v>16.8954796081411</v>
+        <v>15.68808906097426</v>
       </c>
       <c r="L16">
-        <v>6.701953171627414</v>
+        <v>12.07190109580401</v>
       </c>
       <c r="M16">
-        <v>13.63392327738584</v>
+        <v>11.06924057231639</v>
       </c>
       <c r="N16">
-        <v>6.600872091982358</v>
+        <v>6.76072271051247</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.74991521791755</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.967945601501229</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.22824414219862</v>
+        <v>16.20501600521202</v>
       </c>
       <c r="C17">
-        <v>7.819081113313054</v>
+        <v>7.843063888966234</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.171806698818266</v>
+        <v>7.317337347254431</v>
       </c>
       <c r="F17">
-        <v>27.32818152253711</v>
+        <v>26.03143377577798</v>
       </c>
       <c r="G17">
-        <v>28.73381183429375</v>
+        <v>26.09135723033851</v>
       </c>
       <c r="H17">
-        <v>6.226190494397615</v>
+        <v>6.158314388756706</v>
       </c>
       <c r="I17">
-        <v>3.716596961575083</v>
+        <v>3.521038036278105</v>
       </c>
       <c r="J17">
-        <v>10.72554406012043</v>
+        <v>10.23299939435923</v>
       </c>
       <c r="K17">
-        <v>17.26589867921106</v>
+        <v>16.04931985945449</v>
       </c>
       <c r="L17">
-        <v>6.580194858551186</v>
+        <v>12.34499436814649</v>
       </c>
       <c r="M17">
-        <v>13.3508421352308</v>
+        <v>11.32881662687906</v>
       </c>
       <c r="N17">
-        <v>6.779927135368848</v>
+        <v>6.615551304969744</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.48215442132541</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.148580302208657</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.09206981919829</v>
+        <v>16.05390491495534</v>
       </c>
       <c r="C18">
-        <v>7.576940038680418</v>
+        <v>7.629824339520663</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.65485030456209</v>
+        <v>7.80586516048865</v>
       </c>
       <c r="F18">
-        <v>28.67436211793622</v>
+        <v>27.27960776373523</v>
       </c>
       <c r="G18">
-        <v>30.47655276439155</v>
+        <v>27.49281188548895</v>
       </c>
       <c r="H18">
-        <v>5.085583885386946</v>
+        <v>5.000937647344212</v>
       </c>
       <c r="I18">
-        <v>3.728751438558923</v>
+        <v>3.529049719541601</v>
       </c>
       <c r="J18">
-        <v>11.05995048376775</v>
+        <v>10.55718853471919</v>
       </c>
       <c r="K18">
-        <v>17.93368320258318</v>
+        <v>16.59587733752235</v>
       </c>
       <c r="L18">
-        <v>6.420050306298883</v>
+        <v>12.75966731271758</v>
       </c>
       <c r="M18">
-        <v>13.15666294239048</v>
+        <v>11.73878928120942</v>
       </c>
       <c r="N18">
-        <v>7.207715515775637</v>
+        <v>6.436281612093886</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.30327096595535</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.601585394930982</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.1018362989877</v>
+        <v>16.04471931794995</v>
       </c>
       <c r="C19">
-        <v>7.363202157163778</v>
+        <v>7.443397725726979</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.38034490519598</v>
+        <v>8.545150194145018</v>
       </c>
       <c r="F19">
-        <v>30.48127976191071</v>
+        <v>28.90522903221577</v>
       </c>
       <c r="G19">
-        <v>32.70114298053043</v>
+        <v>29.29719693218614</v>
       </c>
       <c r="H19">
-        <v>3.795563313041175</v>
+        <v>3.686231783374364</v>
       </c>
       <c r="I19">
-        <v>3.711096801065151</v>
+        <v>3.515429854440805</v>
       </c>
       <c r="J19">
-        <v>11.47375686514092</v>
+        <v>10.90083884281916</v>
       </c>
       <c r="K19">
-        <v>18.77842681179987</v>
+        <v>17.24788752874563</v>
       </c>
       <c r="L19">
-        <v>6.278634023891644</v>
+        <v>13.25466872792975</v>
       </c>
       <c r="M19">
-        <v>13.05829266845236</v>
+        <v>12.23534331677356</v>
       </c>
       <c r="N19">
-        <v>7.82495556365595</v>
+        <v>6.272233875439777</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.21998839687499</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.258407147052425</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.53172940231996</v>
+        <v>16.44388128863045</v>
       </c>
       <c r="C20">
-        <v>7.2046297973793</v>
+        <v>7.311102968904339</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.684601613550402</v>
+        <v>9.892947741625033</v>
       </c>
       <c r="F20">
-        <v>33.58303739948725</v>
+        <v>31.59685485954586</v>
       </c>
       <c r="G20">
-        <v>36.37851135435064</v>
+        <v>32.34849898875084</v>
       </c>
       <c r="H20">
-        <v>2.56442099536972</v>
+        <v>2.432551189316616</v>
       </c>
       <c r="I20">
-        <v>3.581023840182932</v>
+        <v>3.405674539266512</v>
       </c>
       <c r="J20">
-        <v>12.13367663689076</v>
+        <v>11.29330368416306</v>
       </c>
       <c r="K20">
-        <v>20.16108115404521</v>
+        <v>18.22126542138846</v>
       </c>
       <c r="L20">
-        <v>6.179929383950075</v>
+        <v>13.9573436473339</v>
       </c>
       <c r="M20">
-        <v>13.22514544076307</v>
+        <v>13.0278231905072</v>
       </c>
       <c r="N20">
-        <v>8.891976002558485</v>
+        <v>6.134838064342942</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.40184818474042</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.405198990752773</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.54729848781543</v>
+        <v>17.47276135810801</v>
       </c>
       <c r="C21">
-        <v>7.514827577454887</v>
+        <v>7.536435493270877</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.17707655622656</v>
+        <v>10.53483474563114</v>
       </c>
       <c r="F21">
-        <v>34.89895092120886</v>
+        <v>32.29303984155535</v>
       </c>
       <c r="G21">
-        <v>37.51240943220552</v>
+        <v>34.06989441318009</v>
       </c>
       <c r="H21">
-        <v>2.252464747981395</v>
+        <v>2.153280123809004</v>
       </c>
       <c r="I21">
-        <v>3.346681807236077</v>
+        <v>3.21260125843425</v>
       </c>
       <c r="J21">
-        <v>12.2514866773972</v>
+        <v>10.50016565917593</v>
       </c>
       <c r="K21">
-        <v>20.43068077322755</v>
+        <v>17.98290536825452</v>
       </c>
       <c r="L21">
-        <v>6.235795653731345</v>
+        <v>13.66456550616733</v>
       </c>
       <c r="M21">
-        <v>13.96975839393573</v>
+        <v>13.0099246504345</v>
       </c>
       <c r="N21">
-        <v>9.349891934880695</v>
+        <v>6.221788786141973</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.10626270482842</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.956173302445741</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.18097782697525</v>
+        <v>18.11788438343964</v>
       </c>
       <c r="C22">
-        <v>7.714039987728989</v>
+        <v>7.674310184268281</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.42990917621433</v>
+        <v>10.89173437653774</v>
       </c>
       <c r="F22">
-        <v>35.66004248562778</v>
+        <v>32.64328952929452</v>
       </c>
       <c r="G22">
-        <v>38.18183568771089</v>
+        <v>35.23840491379771</v>
       </c>
       <c r="H22">
-        <v>2.065147943239336</v>
+        <v>1.986808392156996</v>
       </c>
       <c r="I22">
-        <v>3.188871454939742</v>
+        <v>3.078766423948181</v>
       </c>
       <c r="J22">
-        <v>12.31785164744862</v>
+        <v>9.983005815137789</v>
       </c>
       <c r="K22">
-        <v>20.58335205136542</v>
+        <v>17.79238034641958</v>
       </c>
       <c r="L22">
-        <v>6.273715729496083</v>
+        <v>13.45181766867093</v>
       </c>
       <c r="M22">
-        <v>14.43645486810834</v>
+        <v>12.97723413925508</v>
       </c>
       <c r="N22">
-        <v>9.586759684490968</v>
+        <v>6.284419732895781</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.54473674462142</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.25362567833663</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.84999954002486</v>
+        <v>17.77589679518092</v>
       </c>
       <c r="C23">
-        <v>7.597313045407232</v>
+        <v>7.605231595799163</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.29281134110643</v>
+        <v>10.68287761568422</v>
       </c>
       <c r="F23">
-        <v>35.29873651929918</v>
+        <v>32.5427136773302</v>
       </c>
       <c r="G23">
-        <v>37.91450925660686</v>
+        <v>34.57460319512111</v>
       </c>
       <c r="H23">
-        <v>2.163626921324972</v>
+        <v>2.073424862704125</v>
       </c>
       <c r="I23">
-        <v>3.262008461372361</v>
+        <v>3.136215243283765</v>
       </c>
       <c r="J23">
-        <v>12.2999248909773</v>
+        <v>10.34956530703574</v>
       </c>
       <c r="K23">
-        <v>20.5405568731391</v>
+        <v>17.96172039964399</v>
       </c>
       <c r="L23">
-        <v>6.253066408778361</v>
+        <v>13.61260488578112</v>
       </c>
       <c r="M23">
-        <v>14.18590715372224</v>
+        <v>13.04884943637258</v>
       </c>
       <c r="N23">
-        <v>9.451442776888639</v>
+        <v>6.247149669832681</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.31450912227451</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.08015236360017</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.53107365262296</v>
+        <v>16.44061168376273</v>
       </c>
       <c r="C24">
-        <v>7.163983077637161</v>
+        <v>7.269548208515257</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.763084189239528</v>
+        <v>9.97229301800725</v>
       </c>
       <c r="F24">
-        <v>33.83998576177898</v>
+        <v>31.83171790179437</v>
       </c>
       <c r="G24">
-        <v>36.76338225767041</v>
+        <v>32.66981342289564</v>
       </c>
       <c r="H24">
-        <v>2.546029990904933</v>
+        <v>2.414290611134557</v>
       </c>
       <c r="I24">
-        <v>3.563351176295961</v>
+        <v>3.38512637948625</v>
       </c>
       <c r="J24">
-        <v>12.2093035232582</v>
+        <v>11.36199408668487</v>
       </c>
       <c r="K24">
-        <v>20.3221274175461</v>
+        <v>18.3536657633737</v>
       </c>
       <c r="L24">
-        <v>6.173376003144098</v>
+        <v>14.05840665647106</v>
       </c>
       <c r="M24">
-        <v>13.20282378278775</v>
+        <v>13.12760222819789</v>
       </c>
       <c r="N24">
-        <v>8.940177561570245</v>
+        <v>6.121915272314356</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.38160362319289</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.458380873577564</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.99860191167236</v>
+        <v>14.92670774293219</v>
       </c>
       <c r="C25">
-        <v>6.677729697626887</v>
+        <v>6.694020478069708</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.160623729552569</v>
+        <v>9.353472770531205</v>
       </c>
       <c r="F25">
-        <v>32.23100163312121</v>
+        <v>30.53165779605812</v>
       </c>
       <c r="G25">
-        <v>35.54000921213036</v>
+        <v>31.9579284075888</v>
       </c>
       <c r="H25">
-        <v>2.975600644197214</v>
+        <v>2.809954005595888</v>
       </c>
       <c r="I25">
-        <v>3.903298633610057</v>
+        <v>3.680506701057929</v>
       </c>
       <c r="J25">
-        <v>12.12433824686747</v>
+        <v>11.40998968208683</v>
       </c>
       <c r="K25">
-        <v>20.10154127798654</v>
+        <v>18.39176130174456</v>
       </c>
       <c r="L25">
-        <v>6.082280062489148</v>
+        <v>14.25757353627903</v>
       </c>
       <c r="M25">
-        <v>12.05787590522991</v>
+        <v>12.95174989962188</v>
       </c>
       <c r="N25">
-        <v>8.360043222512102</v>
+        <v>6.003087477686385</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.23239505976403</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.830836029025281</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
